--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4456" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +460,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="C13" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +553,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -737,10 +749,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -784,28 +796,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="2">
+      <c r="C23" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -830,28 +842,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -910,10 +922,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -957,28 +969,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1003,28 +1015,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1083,10 +1095,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1130,28 +1142,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="2">
+      <c r="C35" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1176,28 +1188,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1256,10 +1268,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1303,28 +1315,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="2">
+      <c r="C41" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1349,28 +1361,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="2">
+      <c r="I43" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1429,10 +1441,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1476,28 +1488,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1522,28 +1534,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1602,10 +1614,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1649,28 +1661,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1695,28 +1707,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1862,10 +1874,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1909,28 +1921,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1955,28 +1967,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2035,10 +2047,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="2" t="s">
+      <c r="J66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2082,28 +2094,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="2">
+      <c r="C68" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2128,28 +2140,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2324,10 +2336,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="2" t="s">
+      <c r="J76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2371,28 +2383,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="2">
+      <c r="C78" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2417,28 +2429,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="2">
+      <c r="I80" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2613,10 +2625,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2660,28 +2672,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2706,28 +2718,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2786,10 +2798,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2833,28 +2845,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2879,28 +2891,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2959,10 +2971,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3006,28 +3018,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3052,28 +3064,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3248,10 +3260,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3295,28 +3307,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3341,28 +3353,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3421,10 +3433,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3468,28 +3480,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3514,28 +3526,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3594,10 +3606,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3641,28 +3653,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3687,28 +3699,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3767,10 +3779,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="2" t="s">
+      <c r="J126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3814,28 +3826,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="2">
+      <c r="C128" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3860,28 +3872,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3940,10 +3952,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3987,28 +3999,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="2">
+      <c r="C134" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4033,28 +4045,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4113,10 +4125,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4160,28 +4172,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4206,28 +4218,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4286,10 +4298,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4333,28 +4345,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4379,28 +4391,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4459,10 +4471,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4506,28 +4518,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4552,28 +4564,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4632,10 +4644,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4679,28 +4691,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4725,28 +4737,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4805,10 +4817,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4852,28 +4864,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4898,28 +4910,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4978,10 +4990,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5025,28 +5037,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5071,28 +5083,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5151,10 +5163,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="2" t="s">
+      <c r="J174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5198,28 +5210,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="2">
+      <c r="A176" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="2">
+      <c r="C176" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5244,28 +5256,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="C178" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="2">
+      <c r="D178" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="2">
+      <c r="I178" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5324,10 +5336,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5371,28 +5383,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5417,28 +5429,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5584,10 +5596,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5631,28 +5643,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5677,28 +5689,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5757,10 +5769,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5804,28 +5816,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5850,28 +5862,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5930,10 +5942,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5977,28 +5989,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6023,28 +6035,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6103,10 +6115,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6150,28 +6162,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6196,28 +6208,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6276,10 +6288,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6323,28 +6335,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6369,28 +6381,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6449,10 +6461,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="2" t="s">
+      <c r="J219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6496,28 +6508,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="2">
+      <c r="A221" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="2">
+      <c r="C221" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6542,28 +6554,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="2">
+      <c r="C223" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="2">
+      <c r="D223" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="2">
+      <c r="I223" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6622,10 +6634,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6669,28 +6681,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6715,28 +6727,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6795,10 +6807,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6842,28 +6854,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="A233" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="2">
+      <c r="C233" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6888,28 +6900,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="2">
+      <c r="C235" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="2">
+      <c r="D235" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="2">
+      <c r="I235" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6968,10 +6980,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7015,28 +7027,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7061,28 +7073,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7141,10 +7153,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="2" t="s">
+      <c r="J243" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7188,28 +7200,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="2">
+      <c r="A245" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="2">
+      <c r="C245" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7234,28 +7246,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="2">
+      <c r="C247" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="2">
+      <c r="D247" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="2">
+      <c r="I247" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7314,10 +7326,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="2" t="s">
+      <c r="J249" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7361,28 +7373,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="2">
+      <c r="A251" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="2">
+      <c r="C251" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7407,28 +7419,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="2">
+      <c r="C253" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="2">
+      <c r="D253" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="2">
+      <c r="I253" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7487,10 +7499,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="2" t="s">
+      <c r="J255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7534,28 +7546,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="2">
+      <c r="A257" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="2">
+      <c r="C257" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7580,28 +7592,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="2">
+      <c r="C259" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="2">
+      <c r="D259" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="2">
+      <c r="I259" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7776,10 +7788,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="2" t="s">
+      <c r="J265" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7823,28 +7835,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="2">
+      <c r="A267" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="2">
+      <c r="C267" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7869,28 +7881,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="2">
+      <c r="C269" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="2">
+      <c r="D269" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="2">
+      <c r="I269" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7949,10 +7961,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="2" t="s">
+      <c r="J271" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -7996,28 +8008,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="2">
+      <c r="A273" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="2">
+      <c r="C273" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8042,28 +8054,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="2">
+      <c r="C275" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="2">
+      <c r="D275" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="2">
+      <c r="I275" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8122,10 +8134,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="2" t="s">
+      <c r="J277" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8169,28 +8181,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="2">
+      <c r="A279" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="2">
+      <c r="C279" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8215,28 +8227,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="2">
+      <c r="C281" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="2">
+      <c r="D281" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="2">
+      <c r="I281" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8295,10 +8307,10 @@
       <c r="I283">
         <f>((C283-C282)^2+(D283- D282)^2)^.5</f>
       </c>
-      <c r="J283" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K283" s="2" t="s">
+      <c r="J283" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K283" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L283" t="n">
@@ -8342,28 +8354,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="2">
+      <c r="A285" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C285" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D285" t="s" s="2">
+      <c r="C285" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8388,28 +8400,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C287" t="s" s="2">
+      <c r="C287" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D287" t="s" s="2">
+      <c r="D287" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I287" t="s" s="2">
+      <c r="I287" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8468,10 +8480,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="2" t="s">
+      <c r="J289" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8515,28 +8527,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="2">
+      <c r="A291" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="2">
+      <c r="C291" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8561,28 +8573,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="2">
+      <c r="C293" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="2">
+      <c r="D293" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="2">
+      <c r="I293" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8641,10 +8653,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="2" t="s">
+      <c r="J295" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8688,28 +8700,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="2">
+      <c r="A297" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="2">
+      <c r="C297" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8734,28 +8746,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="2">
+      <c r="C299" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="2">
+      <c r="D299" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="2">
+      <c r="I299" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8814,10 +8826,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="2" t="s">
+      <c r="J301" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
@@ -8861,28 +8873,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="s" s="2">
+      <c r="A303" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B303" t="s" s="2">
+      <c r="B303" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C303" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D303" t="s" s="2">
+      <c r="C303" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D303" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E303" t="s" s="2">
+      <c r="E303" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F303" t="s" s="2">
+      <c r="F303" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G303" t="s" s="2">
+      <c r="G303" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H303" t="s" s="2">
+      <c r="H303" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8907,28 +8919,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C305" t="s" s="2">
+      <c r="C305" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D305" t="s" s="2">
+      <c r="D305" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I305" t="s" s="2">
+      <c r="I305" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8987,10 +8999,10 @@
       <c r="I307">
         <f>((C307-C306)^2+(D307- D306)^2)^.5</f>
       </c>
-      <c r="J307" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K307" s="2" t="s">
+      <c r="J307" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K307" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L307" t="n">
@@ -9034,28 +9046,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="s" s="2">
+      <c r="A309" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B309" t="s" s="2">
+      <c r="B309" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C309" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D309" t="s" s="2">
+      <c r="C309" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D309" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E309" t="s" s="2">
+      <c r="E309" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F309" t="s" s="2">
+      <c r="F309" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G309" t="s" s="2">
+      <c r="G309" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H309" t="s" s="2">
+      <c r="H309" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9080,28 +9092,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C311" t="s" s="2">
+      <c r="C311" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D311" t="s" s="2">
+      <c r="D311" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I311" t="s" s="2">
+      <c r="I311" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9160,10 +9172,10 @@
       <c r="I313">
         <f>((C313-C312)^2+(D313- D312)^2)^.5</f>
       </c>
-      <c r="J313" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K313" s="2" t="s">
+      <c r="J313" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K313" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L313" t="n">
@@ -9207,28 +9219,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="s" s="2">
+      <c r="A315" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B315" t="s" s="2">
+      <c r="B315" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C315" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D315" t="s" s="2">
+      <c r="C315" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D315" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E315" t="s" s="2">
+      <c r="E315" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F315" t="s" s="2">
+      <c r="F315" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G315" t="s" s="2">
+      <c r="G315" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H315" t="s" s="2">
+      <c r="H315" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9253,28 +9265,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="B317" t="s" s="2">
+      <c r="B317" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C317" t="s" s="2">
+      <c r="C317" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D317" t="s" s="2">
+      <c r="D317" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E317" t="s" s="2">
+      <c r="E317" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F317" t="s" s="2">
+      <c r="F317" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G317" t="s" s="2">
+      <c r="G317" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H317" t="s" s="2">
+      <c r="H317" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I317" t="s" s="2">
+      <c r="I317" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9333,10 +9345,10 @@
       <c r="I319">
         <f>((C319-C318)^2+(D319- D318)^2)^.5</f>
       </c>
-      <c r="J319" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K319" s="2" t="s">
+      <c r="J319" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K319" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L319" t="n">
@@ -9380,28 +9392,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="s" s="2">
+      <c r="A321" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C321" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D321" t="s" s="2">
+      <c r="C321" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D321" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9426,28 +9438,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="B323" t="s" s="2">
+      <c r="B323" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C323" t="s" s="2">
+      <c r="C323" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D323" t="s" s="2">
+      <c r="D323" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E323" t="s" s="2">
+      <c r="E323" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F323" t="s" s="2">
+      <c r="F323" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G323" t="s" s="2">
+      <c r="G323" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H323" t="s" s="2">
+      <c r="H323" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I323" t="s" s="2">
+      <c r="I323" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9506,10 +9518,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="2" t="s">
+      <c r="J325" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9553,28 +9565,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="2">
+      <c r="A327" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="2">
+      <c r="C327" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9599,28 +9611,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="2">
+      <c r="C329" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="2">
+      <c r="D329" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="2">
+      <c r="I329" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9766,10 +9778,10 @@
       <c r="I334">
         <f>((C334-C333)^2+(D334- D333)^2)^.5</f>
       </c>
-      <c r="J334" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K334" s="2" t="s">
+      <c r="J334" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K334" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L334" t="n">
@@ -9813,28 +9825,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="s" s="2">
+      <c r="A336" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B336" t="s" s="2">
+      <c r="B336" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C336" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D336" t="s" s="2">
+      <c r="C336" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D336" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E336" t="s" s="2">
+      <c r="E336" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F336" t="s" s="2">
+      <c r="F336" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G336" t="s" s="2">
+      <c r="G336" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H336" t="s" s="2">
+      <c r="H336" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9859,28 +9871,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="B338" t="s" s="2">
+      <c r="B338" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C338" t="s" s="2">
+      <c r="C338" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D338" t="s" s="2">
+      <c r="D338" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E338" t="s" s="2">
+      <c r="E338" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F338" t="s" s="2">
+      <c r="F338" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G338" t="s" s="2">
+      <c r="G338" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H338" t="s" s="2">
+      <c r="H338" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I338" t="s" s="2">
+      <c r="I338" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9939,10 +9951,10 @@
       <c r="I340">
         <f>((C340-C339)^2+(D340- D339)^2)^.5</f>
       </c>
-      <c r="J340" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K340" s="2" t="s">
+      <c r="J340" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K340" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L340" t="n">
@@ -9986,28 +9998,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s" s="2">
+      <c r="A342" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B342" t="s" s="2">
+      <c r="B342" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C342" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D342" t="s" s="2">
+      <c r="C342" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D342" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E342" t="s" s="2">
+      <c r="E342" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F342" t="s" s="2">
+      <c r="F342" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G342" t="s" s="2">
+      <c r="G342" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H342" t="s" s="2">
+      <c r="H342" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10032,28 +10044,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="B344" t="s" s="2">
+      <c r="B344" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C344" t="s" s="2">
+      <c r="C344" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D344" t="s" s="2">
+      <c r="D344" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E344" t="s" s="2">
+      <c r="E344" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F344" t="s" s="2">
+      <c r="F344" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G344" t="s" s="2">
+      <c r="G344" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H344" t="s" s="2">
+      <c r="H344" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I344" t="s" s="2">
+      <c r="I344" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10199,10 +10211,10 @@
       <c r="I349">
         <f>((C349-C348)^2+(D349- D348)^2)^.5</f>
       </c>
-      <c r="J349" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K349" s="2" t="s">
+      <c r="J349" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K349" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L349" t="n">
@@ -10246,28 +10258,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="2">
+      <c r="A351" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B351" t="s" s="2">
+      <c r="B351" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C351" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D351" t="s" s="2">
+      <c r="C351" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D351" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E351" t="s" s="2">
+      <c r="E351" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F351" t="s" s="2">
+      <c r="F351" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G351" t="s" s="2">
+      <c r="G351" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H351" t="s" s="2">
+      <c r="H351" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10292,28 +10304,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="B353" t="s" s="2">
+      <c r="B353" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C353" t="s" s="2">
+      <c r="C353" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D353" t="s" s="2">
+      <c r="D353" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E353" t="s" s="2">
+      <c r="E353" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F353" t="s" s="2">
+      <c r="F353" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G353" t="s" s="2">
+      <c r="G353" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H353" t="s" s="2">
+      <c r="H353" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I353" t="s" s="2">
+      <c r="I353" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10372,10 +10384,10 @@
       <c r="I355">
         <f>((C355-C354)^2+(D355- D354)^2)^.5</f>
       </c>
-      <c r="J355" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K355" s="2" t="s">
+      <c r="J355" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K355" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L355" t="n">
@@ -10419,28 +10431,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="s" s="2">
+      <c r="A357" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B357" t="s" s="2">
+      <c r="B357" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C357" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D357" t="s" s="2">
+      <c r="C357" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D357" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E357" t="s" s="2">
+      <c r="E357" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F357" t="s" s="2">
+      <c r="F357" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G357" t="s" s="2">
+      <c r="G357" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H357" t="s" s="2">
+      <c r="H357" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10465,28 +10477,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="B359" t="s" s="2">
+      <c r="B359" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C359" t="s" s="2">
+      <c r="C359" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D359" t="s" s="2">
+      <c r="D359" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E359" t="s" s="2">
+      <c r="E359" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F359" t="s" s="2">
+      <c r="F359" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G359" t="s" s="2">
+      <c r="G359" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H359" t="s" s="2">
+      <c r="H359" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I359" t="s" s="2">
+      <c r="I359" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10545,10 +10557,10 @@
       <c r="I361">
         <f>((C361-C360)^2+(D361- D360)^2)^.5</f>
       </c>
-      <c r="J361" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K361" s="2" t="s">
+      <c r="J361" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K361" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L361" t="n">
@@ -10592,28 +10604,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="s" s="2">
+      <c r="A363" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B363" t="s" s="2">
+      <c r="B363" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C363" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D363" t="s" s="2">
+      <c r="C363" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D363" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E363" t="s" s="2">
+      <c r="E363" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F363" t="s" s="2">
+      <c r="F363" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G363" t="s" s="2">
+      <c r="G363" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H363" t="s" s="2">
+      <c r="H363" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10638,28 +10650,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="B365" t="s" s="2">
+      <c r="B365" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C365" t="s" s="2">
+      <c r="C365" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D365" t="s" s="2">
+      <c r="D365" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E365" t="s" s="2">
+      <c r="E365" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F365" t="s" s="2">
+      <c r="F365" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G365" t="s" s="2">
+      <c r="G365" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H365" t="s" s="2">
+      <c r="H365" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I365" t="s" s="2">
+      <c r="I365" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10718,10 +10730,10 @@
       <c r="I367">
         <f>((C367-C366)^2+(D367- D366)^2)^.5</f>
       </c>
-      <c r="J367" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K367" s="2" t="s">
+      <c r="J367" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K367" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L367" t="n">
@@ -10765,28 +10777,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="s" s="2">
+      <c r="A369" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B369" t="s" s="2">
+      <c r="B369" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C369" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D369" t="s" s="2">
+      <c r="C369" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D369" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E369" t="s" s="2">
+      <c r="E369" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F369" t="s" s="2">
+      <c r="F369" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G369" t="s" s="2">
+      <c r="G369" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H369" t="s" s="2">
+      <c r="H369" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10811,28 +10823,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="B371" t="s" s="2">
+      <c r="B371" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C371" t="s" s="2">
+      <c r="C371" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D371" t="s" s="2">
+      <c r="D371" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E371" t="s" s="2">
+      <c r="E371" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F371" t="s" s="2">
+      <c r="F371" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G371" t="s" s="2">
+      <c r="G371" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H371" t="s" s="2">
+      <c r="H371" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I371" t="s" s="2">
+      <c r="I371" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10891,10 +10903,10 @@
       <c r="I373">
         <f>((C373-C372)^2+(D373- D372)^2)^.5</f>
       </c>
-      <c r="J373" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K373" s="2" t="s">
+      <c r="J373" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K373" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L373" t="n">
@@ -10938,28 +10950,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="s" s="2">
+      <c r="A375" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B375" t="s" s="2">
+      <c r="B375" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C375" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D375" t="s" s="2">
+      <c r="C375" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D375" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E375" t="s" s="2">
+      <c r="E375" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F375" t="s" s="2">
+      <c r="F375" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G375" t="s" s="2">
+      <c r="G375" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H375" t="s" s="2">
+      <c r="H375" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10984,28 +10996,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="B377" t="s" s="2">
+      <c r="B377" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C377" t="s" s="2">
+      <c r="C377" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D377" t="s" s="2">
+      <c r="D377" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E377" t="s" s="2">
+      <c r="E377" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F377" t="s" s="2">
+      <c r="F377" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G377" t="s" s="2">
+      <c r="G377" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H377" t="s" s="2">
+      <c r="H377" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I377" t="s" s="2">
+      <c r="I377" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11064,10 +11076,10 @@
       <c r="I379">
         <f>((C379-C378)^2+(D379- D378)^2)^.5</f>
       </c>
-      <c r="J379" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K379" s="2" t="s">
+      <c r="J379" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K379" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L379" t="n">
@@ -11111,28 +11123,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="s" s="2">
+      <c r="A381" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B381" t="s" s="2">
+      <c r="B381" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C381" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D381" t="s" s="2">
+      <c r="C381" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D381" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E381" t="s" s="2">
+      <c r="E381" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F381" t="s" s="2">
+      <c r="F381" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G381" t="s" s="2">
+      <c r="G381" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H381" t="s" s="2">
+      <c r="H381" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11157,28 +11169,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="B383" t="s" s="2">
+      <c r="B383" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C383" t="s" s="2">
+      <c r="C383" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D383" t="s" s="2">
+      <c r="D383" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E383" t="s" s="2">
+      <c r="E383" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F383" t="s" s="2">
+      <c r="F383" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G383" t="s" s="2">
+      <c r="G383" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H383" t="s" s="2">
+      <c r="H383" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I383" t="s" s="2">
+      <c r="I383" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11324,10 +11336,10 @@
       <c r="I388">
         <f>((C388-C387)^2+(D388- D387)^2)^.5</f>
       </c>
-      <c r="J388" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K388" s="2" t="s">
+      <c r="J388" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K388" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L388" t="n">
@@ -11371,28 +11383,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="s" s="2">
+      <c r="A390" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B390" t="s" s="2">
+      <c r="B390" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C390" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D390" t="s" s="2">
+      <c r="C390" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D390" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E390" t="s" s="2">
+      <c r="E390" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F390" t="s" s="2">
+      <c r="F390" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G390" t="s" s="2">
+      <c r="G390" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H390" t="s" s="2">
+      <c r="H390" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11417,28 +11429,28 @@
       </c>
     </row>
     <row r="392">
-      <c r="B392" t="s" s="2">
+      <c r="B392" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C392" t="s" s="2">
+      <c r="C392" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D392" t="s" s="2">
+      <c r="D392" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E392" t="s" s="2">
+      <c r="E392" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F392" t="s" s="2">
+      <c r="F392" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G392" t="s" s="2">
+      <c r="G392" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H392" t="s" s="2">
+      <c r="H392" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I392" t="s" s="2">
+      <c r="I392" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11497,10 +11509,10 @@
       <c r="I394">
         <f>((C394-C393)^2+(D394- D393)^2)^.5</f>
       </c>
-      <c r="J394" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K394" s="2" t="s">
+      <c r="J394" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K394" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L394" t="n">
@@ -11544,28 +11556,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s" s="2">
+      <c r="A396" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B396" t="s" s="2">
+      <c r="B396" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C396" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D396" t="s" s="2">
+      <c r="C396" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E396" t="s" s="2">
+      <c r="E396" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F396" t="s" s="2">
+      <c r="F396" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G396" t="s" s="2">
+      <c r="G396" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H396" t="s" s="2">
+      <c r="H396" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11590,28 +11602,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="B398" t="s" s="2">
+      <c r="B398" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C398" t="s" s="2">
+      <c r="C398" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D398" t="s" s="2">
+      <c r="D398" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E398" t="s" s="2">
+      <c r="E398" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F398" t="s" s="2">
+      <c r="F398" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G398" t="s" s="2">
+      <c r="G398" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H398" t="s" s="2">
+      <c r="H398" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I398" t="s" s="2">
+      <c r="I398" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11670,10 +11682,10 @@
       <c r="I400">
         <f>((C400-C399)^2+(D400- D399)^2)^.5</f>
       </c>
-      <c r="J400" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K400" s="2" t="s">
+      <c r="J400" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K400" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L400" t="n">
@@ -11717,28 +11729,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="s" s="2">
+      <c r="A402" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B402" t="s" s="2">
+      <c r="B402" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C402" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D402" t="s" s="2">
+      <c r="C402" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E402" t="s" s="2">
+      <c r="E402" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F402" t="s" s="2">
+      <c r="F402" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G402" t="s" s="2">
+      <c r="G402" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H402" t="s" s="2">
+      <c r="H402" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11763,28 +11775,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="B404" t="s" s="2">
+      <c r="B404" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C404" t="s" s="2">
+      <c r="C404" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D404" t="s" s="2">
+      <c r="D404" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E404" t="s" s="2">
+      <c r="E404" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F404" t="s" s="2">
+      <c r="F404" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G404" t="s" s="2">
+      <c r="G404" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H404" t="s" s="2">
+      <c r="H404" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I404" t="s" s="2">
+      <c r="I404" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11843,10 +11855,10 @@
       <c r="I406">
         <f>((C406-C405)^2+(D406- D405)^2)^.5</f>
       </c>
-      <c r="J406" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K406" s="2" t="s">
+      <c r="J406" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K406" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L406" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4456" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13368" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -460,10 +508,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="4" t="s">
+      <c r="J11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -507,28 +555,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="4">
+      <c r="A13" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="4">
+      <c r="B13" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="4">
+      <c r="C13" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="4">
+      <c r="E13" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="4">
+      <c r="F13" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="4">
+      <c r="G13" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="4">
+      <c r="H13" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -553,28 +601,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="4">
+      <c r="B15" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="4">
+      <c r="C15" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="4">
+      <c r="D15" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="4">
+      <c r="E15" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="4">
+      <c r="F15" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="4">
+      <c r="G15" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="4">
+      <c r="H15" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="4">
+      <c r="I15" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -749,10 +797,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="4" t="s">
+      <c r="J21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -796,28 +844,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="4">
+      <c r="A23" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="4">
+      <c r="B23" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="4">
+      <c r="C23" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="4">
+      <c r="E23" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="4">
+      <c r="F23" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="4">
+      <c r="G23" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="4">
+      <c r="H23" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -842,28 +890,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="4">
+      <c r="B25" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="4">
+      <c r="C25" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="4">
+      <c r="D25" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="4">
+      <c r="E25" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="4">
+      <c r="F25" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="4">
+      <c r="G25" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="4">
+      <c r="H25" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="4">
+      <c r="I25" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -922,10 +970,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="4" t="s">
+      <c r="J27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -969,28 +1017,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="4">
+      <c r="A29" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="4">
+      <c r="B29" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="4">
+      <c r="C29" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="4">
+      <c r="E29" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="4">
+      <c r="F29" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="4">
+      <c r="G29" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="4">
+      <c r="H29" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1015,28 +1063,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="4">
+      <c r="B31" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="4">
+      <c r="C31" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="4">
+      <c r="D31" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="4">
+      <c r="E31" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="4">
+      <c r="F31" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="4">
+      <c r="G31" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="4">
+      <c r="H31" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="4">
+      <c r="I31" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1095,10 +1143,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="4" t="s">
+      <c r="J33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1142,28 +1190,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="4">
+      <c r="A35" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="4">
+      <c r="B35" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="4">
+      <c r="C35" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="4">
+      <c r="E35" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="4">
+      <c r="F35" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="4">
+      <c r="G35" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="4">
+      <c r="H35" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1188,28 +1236,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="4">
+      <c r="B37" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="4">
+      <c r="C37" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="4">
+      <c r="D37" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="4">
+      <c r="E37" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="4">
+      <c r="F37" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="4">
+      <c r="G37" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="4">
+      <c r="H37" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="4">
+      <c r="I37" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1268,10 +1316,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="4" t="s">
+      <c r="J39" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1315,28 +1363,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="4">
+      <c r="A41" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="4">
+      <c r="B41" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="4">
+      <c r="C41" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="4">
+      <c r="E41" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="4">
+      <c r="F41" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="4">
+      <c r="G41" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="4">
+      <c r="H41" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1361,28 +1409,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="4">
+      <c r="B43" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="4">
+      <c r="C43" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="4">
+      <c r="D43" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="4">
+      <c r="E43" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="4">
+      <c r="F43" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="4">
+      <c r="G43" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="4">
+      <c r="H43" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="4">
+      <c r="I43" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1441,10 +1489,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="4" t="s">
+      <c r="J45" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1488,28 +1536,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="4">
+      <c r="A47" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="4">
+      <c r="B47" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="4">
+      <c r="C47" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="4">
+      <c r="E47" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="4">
+      <c r="F47" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="4">
+      <c r="G47" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="4">
+      <c r="H47" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1534,28 +1582,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="4">
+      <c r="B49" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="4">
+      <c r="C49" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="4">
+      <c r="D49" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="4">
+      <c r="E49" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="4">
+      <c r="F49" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="4">
+      <c r="G49" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="4">
+      <c r="H49" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="4">
+      <c r="I49" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1614,10 +1662,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="4" t="s">
+      <c r="J51" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1661,28 +1709,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="4">
+      <c r="A53" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="4">
+      <c r="B53" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="4">
+      <c r="C53" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="4">
+      <c r="E53" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="4">
+      <c r="F53" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="4">
+      <c r="G53" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="4">
+      <c r="H53" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1707,28 +1755,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="4">
+      <c r="B55" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="4">
+      <c r="C55" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="4">
+      <c r="D55" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="4">
+      <c r="E55" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="4">
+      <c r="F55" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="4">
+      <c r="G55" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="4">
+      <c r="H55" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="4">
+      <c r="I55" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1874,10 +1922,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="4" t="s">
+      <c r="J60" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1921,28 +1969,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="4">
+      <c r="A62" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="4">
+      <c r="B62" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="4">
+      <c r="C62" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="4">
+      <c r="E62" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="4">
+      <c r="F62" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="4">
+      <c r="G62" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="4">
+      <c r="H62" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1967,28 +2015,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="4">
+      <c r="B64" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="4">
+      <c r="C64" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="4">
+      <c r="D64" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="4">
+      <c r="E64" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="4">
+      <c r="F64" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="4">
+      <c r="G64" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="4">
+      <c r="H64" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="4">
+      <c r="I64" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2047,10 +2095,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="4" t="s">
+      <c r="J66" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2094,28 +2142,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="4">
+      <c r="A68" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="4">
+      <c r="B68" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="4">
+      <c r="C68" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="4">
+      <c r="E68" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="4">
+      <c r="F68" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="4">
+      <c r="G68" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="4">
+      <c r="H68" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2140,28 +2188,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="4">
+      <c r="B70" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="4">
+      <c r="C70" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="4">
+      <c r="D70" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="4">
+      <c r="E70" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="4">
+      <c r="F70" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="4">
+      <c r="G70" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="4">
+      <c r="H70" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="4">
+      <c r="I70" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2336,10 +2384,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="4" t="s">
+      <c r="J76" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2383,28 +2431,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="4">
+      <c r="A78" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="4">
+      <c r="B78" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="4">
+      <c r="C78" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="4">
+      <c r="E78" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="4">
+      <c r="F78" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="4">
+      <c r="G78" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="4">
+      <c r="H78" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2429,28 +2477,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="4">
+      <c r="B80" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="4">
+      <c r="C80" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="4">
+      <c r="D80" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="4">
+      <c r="E80" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="4">
+      <c r="F80" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="4">
+      <c r="G80" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="4">
+      <c r="H80" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="4">
+      <c r="I80" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2625,10 +2673,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="4" t="s">
+      <c r="J86" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2672,28 +2720,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="4">
+      <c r="A88" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="4">
+      <c r="B88" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="4">
+      <c r="C88" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="4">
+      <c r="E88" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="4">
+      <c r="F88" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="4">
+      <c r="G88" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="4">
+      <c r="H88" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2718,28 +2766,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="4">
+      <c r="B90" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="4">
+      <c r="C90" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="4">
+      <c r="D90" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="4">
+      <c r="E90" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="4">
+      <c r="F90" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="4">
+      <c r="G90" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="4">
+      <c r="H90" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="4">
+      <c r="I90" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2798,10 +2846,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="4" t="s">
+      <c r="J92" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2845,28 +2893,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="4">
+      <c r="A94" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="4">
+      <c r="B94" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="4">
+      <c r="C94" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="4">
+      <c r="E94" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="4">
+      <c r="F94" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="4">
+      <c r="G94" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="4">
+      <c r="H94" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2891,28 +2939,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="4">
+      <c r="B96" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="4">
+      <c r="C96" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="4">
+      <c r="D96" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="4">
+      <c r="E96" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="4">
+      <c r="F96" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="4">
+      <c r="G96" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="4">
+      <c r="H96" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="4">
+      <c r="I96" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2971,10 +3019,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="4" t="s">
+      <c r="J98" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3018,28 +3066,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="4">
+      <c r="A100" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="4">
+      <c r="B100" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="4">
+      <c r="C100" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="4">
+      <c r="E100" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="4">
+      <c r="F100" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="4">
+      <c r="G100" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="4">
+      <c r="H100" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3064,28 +3112,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="4">
+      <c r="B102" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="4">
+      <c r="C102" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="4">
+      <c r="D102" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="4">
+      <c r="E102" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="4">
+      <c r="F102" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="4">
+      <c r="G102" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="4">
+      <c r="H102" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="4">
+      <c r="I102" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3260,10 +3308,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="4" t="s">
+      <c r="J108" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3307,28 +3355,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="4">
+      <c r="A110" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="4">
+      <c r="B110" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="4">
+      <c r="C110" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="4">
+      <c r="E110" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="4">
+      <c r="F110" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="4">
+      <c r="G110" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="4">
+      <c r="H110" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3353,28 +3401,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="4">
+      <c r="B112" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="4">
+      <c r="C112" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="4">
+      <c r="D112" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="4">
+      <c r="E112" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="4">
+      <c r="F112" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="4">
+      <c r="G112" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="4">
+      <c r="H112" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="4">
+      <c r="I112" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3433,10 +3481,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="4" t="s">
+      <c r="J114" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3480,28 +3528,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="4">
+      <c r="A116" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="4">
+      <c r="B116" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="4">
+      <c r="C116" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="4">
+      <c r="E116" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="4">
+      <c r="F116" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="4">
+      <c r="G116" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="4">
+      <c r="H116" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3526,28 +3574,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="4">
+      <c r="B118" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="4">
+      <c r="C118" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="4">
+      <c r="D118" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="4">
+      <c r="E118" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="4">
+      <c r="F118" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="4">
+      <c r="G118" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="4">
+      <c r="H118" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="4">
+      <c r="I118" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3606,10 +3654,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="4" t="s">
+      <c r="J120" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3653,28 +3701,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="4">
+      <c r="A122" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="4">
+      <c r="B122" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="4">
+      <c r="C122" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="4">
+      <c r="E122" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="4">
+      <c r="F122" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="4">
+      <c r="G122" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="4">
+      <c r="H122" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3699,28 +3747,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="4">
+      <c r="B124" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="4">
+      <c r="C124" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="4">
+      <c r="D124" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="4">
+      <c r="E124" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="4">
+      <c r="F124" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="4">
+      <c r="G124" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="4">
+      <c r="H124" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="4">
+      <c r="I124" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3779,10 +3827,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="4" t="s">
+      <c r="J126" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3826,28 +3874,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="4">
+      <c r="A128" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="4">
+      <c r="B128" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="4">
+      <c r="C128" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="4">
+      <c r="E128" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="4">
+      <c r="F128" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="4">
+      <c r="G128" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="4">
+      <c r="H128" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3872,28 +3920,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="4">
+      <c r="B130" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="4">
+      <c r="C130" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="4">
+      <c r="D130" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="4">
+      <c r="E130" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="4">
+      <c r="F130" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="4">
+      <c r="G130" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="4">
+      <c r="H130" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="4">
+      <c r="I130" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3952,10 +4000,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="4" t="s">
+      <c r="J132" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3999,28 +4047,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="4">
+      <c r="A134" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="4">
+      <c r="B134" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="4">
+      <c r="C134" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="4">
+      <c r="E134" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="4">
+      <c r="F134" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="4">
+      <c r="G134" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="4">
+      <c r="H134" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4045,28 +4093,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="4">
+      <c r="B136" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="4">
+      <c r="C136" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="4">
+      <c r="D136" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="4">
+      <c r="E136" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="4">
+      <c r="F136" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="4">
+      <c r="G136" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="4">
+      <c r="H136" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="4">
+      <c r="I136" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4125,10 +4173,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="4" t="s">
+      <c r="J138" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4172,28 +4220,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="4">
+      <c r="A140" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="4">
+      <c r="B140" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="4">
+      <c r="C140" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="4">
+      <c r="E140" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="4">
+      <c r="F140" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="4">
+      <c r="G140" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="4">
+      <c r="H140" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4218,28 +4266,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="4">
+      <c r="B142" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="4">
+      <c r="C142" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="4">
+      <c r="D142" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="4">
+      <c r="E142" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="4">
+      <c r="F142" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="4">
+      <c r="G142" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="4">
+      <c r="H142" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="4">
+      <c r="I142" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4298,10 +4346,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="4" t="s">
+      <c r="J144" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4345,28 +4393,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="4">
+      <c r="A146" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="4">
+      <c r="B146" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="4">
+      <c r="C146" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="4">
+      <c r="E146" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="4">
+      <c r="F146" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="4">
+      <c r="G146" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="4">
+      <c r="H146" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4391,28 +4439,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="4">
+      <c r="B148" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="4">
+      <c r="C148" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="4">
+      <c r="D148" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="4">
+      <c r="E148" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="4">
+      <c r="F148" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="4">
+      <c r="G148" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="4">
+      <c r="H148" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="4">
+      <c r="I148" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4471,10 +4519,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="4" t="s">
+      <c r="J150" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4518,28 +4566,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="4">
+      <c r="A152" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="4">
+      <c r="B152" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="4">
+      <c r="C152" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="4">
+      <c r="E152" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="4">
+      <c r="F152" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="4">
+      <c r="G152" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="4">
+      <c r="H152" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4564,28 +4612,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="4">
+      <c r="B154" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="4">
+      <c r="C154" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="4">
+      <c r="D154" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="4">
+      <c r="E154" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="4">
+      <c r="F154" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="4">
+      <c r="G154" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="4">
+      <c r="H154" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="4">
+      <c r="I154" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4644,10 +4692,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="4" t="s">
+      <c r="J156" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4691,28 +4739,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="4">
+      <c r="A158" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="4">
+      <c r="B158" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="4">
+      <c r="C158" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="4">
+      <c r="E158" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="4">
+      <c r="F158" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="4">
+      <c r="G158" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="4">
+      <c r="H158" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4737,28 +4785,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="4">
+      <c r="B160" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="4">
+      <c r="C160" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="4">
+      <c r="D160" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="4">
+      <c r="E160" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="4">
+      <c r="F160" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="4">
+      <c r="G160" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="4">
+      <c r="H160" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="4">
+      <c r="I160" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4817,10 +4865,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="4" t="s">
+      <c r="J162" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4864,28 +4912,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="4">
+      <c r="A164" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="4">
+      <c r="B164" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="4">
+      <c r="C164" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="4">
+      <c r="E164" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="4">
+      <c r="F164" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="4">
+      <c r="G164" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="4">
+      <c r="H164" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4910,28 +4958,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="4">
+      <c r="B166" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="4">
+      <c r="C166" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="4">
+      <c r="D166" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="4">
+      <c r="E166" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="4">
+      <c r="F166" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="4">
+      <c r="G166" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="4">
+      <c r="H166" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="4">
+      <c r="I166" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4990,10 +5038,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="4" t="s">
+      <c r="J168" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5037,28 +5085,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="4">
+      <c r="A170" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="4">
+      <c r="C170" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5083,28 +5131,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="4">
+      <c r="C172" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="4">
+      <c r="D172" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="4">
+      <c r="E172" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="4">
+      <c r="F172" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="4">
+      <c r="G172" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="4">
+      <c r="H172" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="4">
+      <c r="I172" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5163,10 +5211,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="4" t="s">
+      <c r="J174" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5210,28 +5258,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="4">
+      <c r="A176" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="4">
+      <c r="B176" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="4">
+      <c r="C176" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="4">
+      <c r="E176" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="4">
+      <c r="F176" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="4">
+      <c r="G176" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="4">
+      <c r="H176" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5256,28 +5304,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="4">
+      <c r="B178" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="4">
+      <c r="C178" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="4">
+      <c r="D178" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="4">
+      <c r="E178" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="4">
+      <c r="F178" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="4">
+      <c r="G178" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="4">
+      <c r="H178" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="4">
+      <c r="I178" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5336,10 +5384,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="4" t="s">
+      <c r="J180" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5383,28 +5431,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="4">
+      <c r="A182" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="4">
+      <c r="B182" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="4">
+      <c r="C182" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="4">
+      <c r="E182" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="4">
+      <c r="F182" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="4">
+      <c r="G182" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="4">
+      <c r="H182" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5429,28 +5477,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="4">
+      <c r="B184" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="4">
+      <c r="C184" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="4">
+      <c r="D184" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="4">
+      <c r="E184" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="4">
+      <c r="F184" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="4">
+      <c r="G184" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="4">
+      <c r="H184" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="4">
+      <c r="I184" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5596,10 +5644,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="4" t="s">
+      <c r="J189" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5643,28 +5691,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="4">
+      <c r="A191" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="4">
+      <c r="B191" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="4">
+      <c r="C191" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="4">
+      <c r="E191" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="4">
+      <c r="F191" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="4">
+      <c r="G191" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="4">
+      <c r="H191" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5689,28 +5737,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="4">
+      <c r="B193" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="4">
+      <c r="C193" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="4">
+      <c r="D193" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="4">
+      <c r="E193" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="4">
+      <c r="F193" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="4">
+      <c r="G193" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="4">
+      <c r="H193" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="4">
+      <c r="I193" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5769,10 +5817,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="4" t="s">
+      <c r="J195" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5816,28 +5864,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="4">
+      <c r="A197" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="4">
+      <c r="B197" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="4">
+      <c r="C197" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="4">
+      <c r="E197" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="4">
+      <c r="F197" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="4">
+      <c r="G197" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="4">
+      <c r="H197" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5862,28 +5910,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="4">
+      <c r="B199" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="4">
+      <c r="C199" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="4">
+      <c r="D199" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="4">
+      <c r="E199" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="4">
+      <c r="F199" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="4">
+      <c r="G199" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="4">
+      <c r="H199" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="4">
+      <c r="I199" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5942,10 +5990,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="4" t="s">
+      <c r="J201" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5989,28 +6037,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="4">
+      <c r="A203" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="4">
+      <c r="B203" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="4">
+      <c r="C203" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="4">
+      <c r="E203" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="4">
+      <c r="F203" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="4">
+      <c r="G203" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="4">
+      <c r="H203" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6035,28 +6083,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="4">
+      <c r="B205" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="4">
+      <c r="C205" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="4">
+      <c r="D205" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="4">
+      <c r="E205" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="4">
+      <c r="F205" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="4">
+      <c r="G205" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="4">
+      <c r="H205" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="4">
+      <c r="I205" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6115,10 +6163,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="4" t="s">
+      <c r="J207" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6162,28 +6210,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="4">
+      <c r="A209" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="4">
+      <c r="B209" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="4">
+      <c r="C209" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="4">
+      <c r="E209" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="4">
+      <c r="F209" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="4">
+      <c r="G209" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="4">
+      <c r="H209" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6208,28 +6256,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="4">
+      <c r="B211" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="4">
+      <c r="C211" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="4">
+      <c r="D211" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="4">
+      <c r="E211" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="4">
+      <c r="F211" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="4">
+      <c r="G211" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="4">
+      <c r="H211" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="4">
+      <c r="I211" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6288,10 +6336,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="4" t="s">
+      <c r="J213" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6335,28 +6383,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="4">
+      <c r="A215" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="4">
+      <c r="B215" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="4">
+      <c r="C215" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="4">
+      <c r="E215" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="4">
+      <c r="F215" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="4">
+      <c r="G215" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="4">
+      <c r="H215" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6381,28 +6429,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="4">
+      <c r="B217" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="4">
+      <c r="C217" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="4">
+      <c r="D217" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="4">
+      <c r="E217" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="4">
+      <c r="F217" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="4">
+      <c r="G217" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="4">
+      <c r="H217" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="4">
+      <c r="I217" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6461,10 +6509,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="4" t="s">
+      <c r="J219" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6508,28 +6556,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="4">
+      <c r="A221" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="4">
+      <c r="B221" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="4">
+      <c r="C221" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="4">
+      <c r="E221" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="4">
+      <c r="F221" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="4">
+      <c r="G221" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="4">
+      <c r="H221" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6554,28 +6602,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="4">
+      <c r="B223" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="4">
+      <c r="C223" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="4">
+      <c r="D223" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="4">
+      <c r="E223" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="4">
+      <c r="F223" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="4">
+      <c r="G223" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="4">
+      <c r="H223" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="4">
+      <c r="I223" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6634,10 +6682,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="4" t="s">
+      <c r="J225" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6681,28 +6729,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="4">
+      <c r="A227" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="4">
+      <c r="B227" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="4">
+      <c r="C227" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="4">
+      <c r="E227" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="4">
+      <c r="F227" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="4">
+      <c r="G227" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="4">
+      <c r="H227" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6727,28 +6775,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="4">
+      <c r="B229" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="4">
+      <c r="C229" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="4">
+      <c r="D229" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="4">
+      <c r="E229" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="4">
+      <c r="F229" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="4">
+      <c r="G229" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="4">
+      <c r="H229" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="4">
+      <c r="I229" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6807,10 +6855,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="4" t="s">
+      <c r="J231" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6854,28 +6902,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="4">
+      <c r="A233" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="4">
+      <c r="B233" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="4">
+      <c r="C233" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="4">
+      <c r="E233" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="4">
+      <c r="F233" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="4">
+      <c r="G233" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="4">
+      <c r="H233" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6900,28 +6948,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="4">
+      <c r="B235" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="4">
+      <c r="C235" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="4">
+      <c r="D235" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="4">
+      <c r="E235" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="4">
+      <c r="F235" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="4">
+      <c r="G235" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="4">
+      <c r="H235" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="4">
+      <c r="I235" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6980,10 +7028,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="4" t="s">
+      <c r="J237" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7027,28 +7075,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="4">
+      <c r="A239" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="4">
+      <c r="B239" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="4">
+      <c r="C239" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="4">
+      <c r="E239" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="4">
+      <c r="F239" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="4">
+      <c r="G239" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="4">
+      <c r="H239" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7073,28 +7121,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="4">
+      <c r="B241" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="4">
+      <c r="C241" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="4">
+      <c r="D241" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="4">
+      <c r="E241" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="4">
+      <c r="F241" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="4">
+      <c r="G241" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="4">
+      <c r="H241" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="4">
+      <c r="I241" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7153,10 +7201,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="4" t="s">
+      <c r="J243" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7200,28 +7248,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="4">
+      <c r="A245" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="4">
+      <c r="B245" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="4">
+      <c r="C245" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="4">
+      <c r="E245" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="4">
+      <c r="F245" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="4">
+      <c r="G245" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="4">
+      <c r="H245" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7246,28 +7294,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="4">
+      <c r="B247" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="4">
+      <c r="C247" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="4">
+      <c r="D247" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="4">
+      <c r="E247" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="4">
+      <c r="F247" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="4">
+      <c r="G247" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="4">
+      <c r="H247" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="4">
+      <c r="I247" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7326,10 +7374,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="4" t="s">
+      <c r="J249" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7373,28 +7421,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="4">
+      <c r="A251" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="4">
+      <c r="B251" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="4">
+      <c r="C251" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="4">
+      <c r="E251" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="4">
+      <c r="F251" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="4">
+      <c r="G251" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="4">
+      <c r="H251" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7419,28 +7467,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="4">
+      <c r="B253" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="4">
+      <c r="C253" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="4">
+      <c r="D253" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="4">
+      <c r="E253" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="4">
+      <c r="F253" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="4">
+      <c r="G253" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="4">
+      <c r="H253" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="4">
+      <c r="I253" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7499,10 +7547,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="4" t="s">
+      <c r="J255" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7546,28 +7594,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="4">
+      <c r="A257" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="4">
+      <c r="B257" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="4">
+      <c r="C257" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="4">
+      <c r="E257" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="4">
+      <c r="F257" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="4">
+      <c r="G257" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="4">
+      <c r="H257" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7592,28 +7640,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="4">
+      <c r="B259" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="4">
+      <c r="C259" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="4">
+      <c r="D259" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="4">
+      <c r="E259" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="4">
+      <c r="F259" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="4">
+      <c r="G259" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="4">
+      <c r="H259" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="4">
+      <c r="I259" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7788,10 +7836,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="4" t="s">
+      <c r="J265" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7835,28 +7883,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="4">
+      <c r="A267" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="4">
+      <c r="B267" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="4">
+      <c r="C267" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="4">
+      <c r="E267" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="4">
+      <c r="F267" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="4">
+      <c r="G267" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="4">
+      <c r="H267" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7881,28 +7929,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="4">
+      <c r="B269" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="4">
+      <c r="C269" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="4">
+      <c r="D269" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="4">
+      <c r="E269" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="4">
+      <c r="F269" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="4">
+      <c r="G269" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="4">
+      <c r="H269" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="4">
+      <c r="I269" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7961,10 +8009,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="4" t="s">
+      <c r="J271" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -8008,28 +8056,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="4">
+      <c r="A273" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="4">
+      <c r="B273" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="4">
+      <c r="C273" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="4">
+      <c r="E273" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="4">
+      <c r="F273" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="4">
+      <c r="G273" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="4">
+      <c r="H273" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8054,28 +8102,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="4">
+      <c r="B275" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="4">
+      <c r="C275" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="4">
+      <c r="D275" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="4">
+      <c r="E275" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="4">
+      <c r="F275" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="4">
+      <c r="G275" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="4">
+      <c r="H275" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="4">
+      <c r="I275" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8134,10 +8182,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="4" t="s">
+      <c r="J277" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8181,28 +8229,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="4">
+      <c r="A279" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="4">
+      <c r="B279" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="4">
+      <c r="C279" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="4">
+      <c r="E279" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="4">
+      <c r="F279" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="4">
+      <c r="G279" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="4">
+      <c r="H279" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8227,28 +8275,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="4">
+      <c r="B281" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="4">
+      <c r="C281" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="4">
+      <c r="D281" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="4">
+      <c r="E281" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="4">
+      <c r="F281" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="4">
+      <c r="G281" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="4">
+      <c r="H281" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="4">
+      <c r="I281" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8307,10 +8355,10 @@
       <c r="I283">
         <f>((C283-C282)^2+(D283- D282)^2)^.5</f>
       </c>
-      <c r="J283" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K283" s="4" t="s">
+      <c r="J283" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K283" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L283" t="n">
@@ -8354,28 +8402,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="4">
+      <c r="A285" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B285" t="s" s="4">
+      <c r="B285" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C285" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D285" t="s" s="4">
+      <c r="C285" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E285" t="s" s="4">
+      <c r="E285" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F285" t="s" s="4">
+      <c r="F285" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G285" t="s" s="4">
+      <c r="G285" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H285" t="s" s="4">
+      <c r="H285" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8400,28 +8448,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="4">
+      <c r="B287" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C287" t="s" s="4">
+      <c r="C287" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D287" t="s" s="4">
+      <c r="D287" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E287" t="s" s="4">
+      <c r="E287" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F287" t="s" s="4">
+      <c r="F287" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G287" t="s" s="4">
+      <c r="G287" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H287" t="s" s="4">
+      <c r="H287" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I287" t="s" s="4">
+      <c r="I287" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8480,10 +8528,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="4" t="s">
+      <c r="J289" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8527,28 +8575,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="4">
+      <c r="A291" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="4">
+      <c r="B291" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="4">
+      <c r="C291" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="4">
+      <c r="E291" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="4">
+      <c r="F291" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="4">
+      <c r="G291" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="4">
+      <c r="H291" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8573,28 +8621,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="4">
+      <c r="B293" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="4">
+      <c r="C293" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="4">
+      <c r="D293" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="4">
+      <c r="E293" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="4">
+      <c r="F293" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="4">
+      <c r="G293" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="4">
+      <c r="H293" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="4">
+      <c r="I293" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8653,10 +8701,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="4" t="s">
+      <c r="J295" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8700,28 +8748,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="4">
+      <c r="A297" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="4">
+      <c r="B297" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="4">
+      <c r="C297" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="4">
+      <c r="E297" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="4">
+      <c r="F297" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="4">
+      <c r="G297" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="4">
+      <c r="H297" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8746,28 +8794,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="4">
+      <c r="B299" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="4">
+      <c r="C299" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="4">
+      <c r="D299" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="4">
+      <c r="E299" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="4">
+      <c r="F299" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="4">
+      <c r="G299" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="4">
+      <c r="H299" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="4">
+      <c r="I299" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8826,10 +8874,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="4" t="s">
+      <c r="J301" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
@@ -8873,28 +8921,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="s" s="4">
+      <c r="A303" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B303" t="s" s="4">
+      <c r="B303" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C303" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D303" t="s" s="4">
+      <c r="C303" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D303" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E303" t="s" s="4">
+      <c r="E303" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F303" t="s" s="4">
+      <c r="F303" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G303" t="s" s="4">
+      <c r="G303" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H303" t="s" s="4">
+      <c r="H303" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8919,28 +8967,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="B305" t="s" s="4">
+      <c r="B305" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C305" t="s" s="4">
+      <c r="C305" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D305" t="s" s="4">
+      <c r="D305" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E305" t="s" s="4">
+      <c r="E305" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F305" t="s" s="4">
+      <c r="F305" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G305" t="s" s="4">
+      <c r="G305" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H305" t="s" s="4">
+      <c r="H305" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I305" t="s" s="4">
+      <c r="I305" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8999,10 +9047,10 @@
       <c r="I307">
         <f>((C307-C306)^2+(D307- D306)^2)^.5</f>
       </c>
-      <c r="J307" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K307" s="4" t="s">
+      <c r="J307" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K307" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L307" t="n">
@@ -9046,28 +9094,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="s" s="4">
+      <c r="A309" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B309" t="s" s="4">
+      <c r="B309" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C309" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D309" t="s" s="4">
+      <c r="C309" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D309" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E309" t="s" s="4">
+      <c r="E309" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F309" t="s" s="4">
+      <c r="F309" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G309" t="s" s="4">
+      <c r="G309" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H309" t="s" s="4">
+      <c r="H309" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9092,28 +9140,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="B311" t="s" s="4">
+      <c r="B311" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C311" t="s" s="4">
+      <c r="C311" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D311" t="s" s="4">
+      <c r="D311" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E311" t="s" s="4">
+      <c r="E311" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F311" t="s" s="4">
+      <c r="F311" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G311" t="s" s="4">
+      <c r="G311" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H311" t="s" s="4">
+      <c r="H311" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I311" t="s" s="4">
+      <c r="I311" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9172,10 +9220,10 @@
       <c r="I313">
         <f>((C313-C312)^2+(D313- D312)^2)^.5</f>
       </c>
-      <c r="J313" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K313" s="4" t="s">
+      <c r="J313" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K313" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L313" t="n">
@@ -9219,28 +9267,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="s" s="4">
+      <c r="A315" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B315" t="s" s="4">
+      <c r="B315" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C315" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D315" t="s" s="4">
+      <c r="C315" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D315" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E315" t="s" s="4">
+      <c r="E315" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F315" t="s" s="4">
+      <c r="F315" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G315" t="s" s="4">
+      <c r="G315" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H315" t="s" s="4">
+      <c r="H315" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9265,28 +9313,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="B317" t="s" s="4">
+      <c r="B317" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C317" t="s" s="4">
+      <c r="C317" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D317" t="s" s="4">
+      <c r="D317" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E317" t="s" s="4">
+      <c r="E317" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F317" t="s" s="4">
+      <c r="F317" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G317" t="s" s="4">
+      <c r="G317" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H317" t="s" s="4">
+      <c r="H317" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I317" t="s" s="4">
+      <c r="I317" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9345,10 +9393,10 @@
       <c r="I319">
         <f>((C319-C318)^2+(D319- D318)^2)^.5</f>
       </c>
-      <c r="J319" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K319" s="4" t="s">
+      <c r="J319" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K319" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L319" t="n">
@@ -9392,28 +9440,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="s" s="4">
+      <c r="A321" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B321" t="s" s="4">
+      <c r="B321" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C321" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D321" t="s" s="4">
+      <c r="C321" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D321" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E321" t="s" s="4">
+      <c r="E321" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F321" t="s" s="4">
+      <c r="F321" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G321" t="s" s="4">
+      <c r="G321" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H321" t="s" s="4">
+      <c r="H321" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9438,28 +9486,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="B323" t="s" s="4">
+      <c r="B323" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C323" t="s" s="4">
+      <c r="C323" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D323" t="s" s="4">
+      <c r="D323" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E323" t="s" s="4">
+      <c r="E323" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F323" t="s" s="4">
+      <c r="F323" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G323" t="s" s="4">
+      <c r="G323" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H323" t="s" s="4">
+      <c r="H323" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I323" t="s" s="4">
+      <c r="I323" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9518,10 +9566,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="4" t="s">
+      <c r="J325" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9565,28 +9613,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="4">
+      <c r="A327" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="4">
+      <c r="B327" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="4">
+      <c r="C327" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="4">
+      <c r="E327" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="4">
+      <c r="F327" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="4">
+      <c r="G327" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="4">
+      <c r="H327" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9611,28 +9659,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="4">
+      <c r="B329" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="4">
+      <c r="C329" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="4">
+      <c r="D329" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="4">
+      <c r="E329" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="4">
+      <c r="F329" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="4">
+      <c r="G329" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="4">
+      <c r="H329" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="4">
+      <c r="I329" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9778,10 +9826,10 @@
       <c r="I334">
         <f>((C334-C333)^2+(D334- D333)^2)^.5</f>
       </c>
-      <c r="J334" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K334" s="4" t="s">
+      <c r="J334" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K334" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L334" t="n">
@@ -9825,28 +9873,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="s" s="4">
+      <c r="A336" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B336" t="s" s="4">
+      <c r="B336" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C336" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D336" t="s" s="4">
+      <c r="C336" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D336" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E336" t="s" s="4">
+      <c r="E336" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F336" t="s" s="4">
+      <c r="F336" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G336" t="s" s="4">
+      <c r="G336" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H336" t="s" s="4">
+      <c r="H336" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9871,28 +9919,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="B338" t="s" s="4">
+      <c r="B338" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C338" t="s" s="4">
+      <c r="C338" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D338" t="s" s="4">
+      <c r="D338" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E338" t="s" s="4">
+      <c r="E338" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F338" t="s" s="4">
+      <c r="F338" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G338" t="s" s="4">
+      <c r="G338" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H338" t="s" s="4">
+      <c r="H338" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I338" t="s" s="4">
+      <c r="I338" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9951,10 +9999,10 @@
       <c r="I340">
         <f>((C340-C339)^2+(D340- D339)^2)^.5</f>
       </c>
-      <c r="J340" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K340" s="4" t="s">
+      <c r="J340" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K340" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L340" t="n">
@@ -9998,28 +10046,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s" s="4">
+      <c r="A342" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B342" t="s" s="4">
+      <c r="B342" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C342" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D342" t="s" s="4">
+      <c r="C342" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D342" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E342" t="s" s="4">
+      <c r="E342" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F342" t="s" s="4">
+      <c r="F342" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G342" t="s" s="4">
+      <c r="G342" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H342" t="s" s="4">
+      <c r="H342" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10044,28 +10092,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="B344" t="s" s="4">
+      <c r="B344" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C344" t="s" s="4">
+      <c r="C344" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D344" t="s" s="4">
+      <c r="D344" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E344" t="s" s="4">
+      <c r="E344" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F344" t="s" s="4">
+      <c r="F344" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G344" t="s" s="4">
+      <c r="G344" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H344" t="s" s="4">
+      <c r="H344" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I344" t="s" s="4">
+      <c r="I344" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10211,10 +10259,10 @@
       <c r="I349">
         <f>((C349-C348)^2+(D349- D348)^2)^.5</f>
       </c>
-      <c r="J349" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K349" s="4" t="s">
+      <c r="J349" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K349" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L349" t="n">
@@ -10258,28 +10306,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="4">
+      <c r="A351" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B351" t="s" s="4">
+      <c r="B351" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C351" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D351" t="s" s="4">
+      <c r="C351" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D351" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E351" t="s" s="4">
+      <c r="E351" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F351" t="s" s="4">
+      <c r="F351" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G351" t="s" s="4">
+      <c r="G351" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H351" t="s" s="4">
+      <c r="H351" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10304,28 +10352,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="B353" t="s" s="4">
+      <c r="B353" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C353" t="s" s="4">
+      <c r="C353" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D353" t="s" s="4">
+      <c r="D353" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E353" t="s" s="4">
+      <c r="E353" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F353" t="s" s="4">
+      <c r="F353" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G353" t="s" s="4">
+      <c r="G353" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H353" t="s" s="4">
+      <c r="H353" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I353" t="s" s="4">
+      <c r="I353" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10384,10 +10432,10 @@
       <c r="I355">
         <f>((C355-C354)^2+(D355- D354)^2)^.5</f>
       </c>
-      <c r="J355" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K355" s="4" t="s">
+      <c r="J355" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K355" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L355" t="n">
@@ -10431,28 +10479,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="s" s="4">
+      <c r="A357" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B357" t="s" s="4">
+      <c r="B357" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C357" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D357" t="s" s="4">
+      <c r="C357" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D357" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E357" t="s" s="4">
+      <c r="E357" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F357" t="s" s="4">
+      <c r="F357" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G357" t="s" s="4">
+      <c r="G357" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H357" t="s" s="4">
+      <c r="H357" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10477,28 +10525,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="B359" t="s" s="4">
+      <c r="B359" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C359" t="s" s="4">
+      <c r="C359" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D359" t="s" s="4">
+      <c r="D359" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E359" t="s" s="4">
+      <c r="E359" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F359" t="s" s="4">
+      <c r="F359" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G359" t="s" s="4">
+      <c r="G359" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H359" t="s" s="4">
+      <c r="H359" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I359" t="s" s="4">
+      <c r="I359" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10557,10 +10605,10 @@
       <c r="I361">
         <f>((C361-C360)^2+(D361- D360)^2)^.5</f>
       </c>
-      <c r="J361" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K361" s="4" t="s">
+      <c r="J361" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K361" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L361" t="n">
@@ -10604,28 +10652,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="s" s="4">
+      <c r="A363" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B363" t="s" s="4">
+      <c r="B363" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C363" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D363" t="s" s="4">
+      <c r="C363" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D363" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E363" t="s" s="4">
+      <c r="E363" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F363" t="s" s="4">
+      <c r="F363" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G363" t="s" s="4">
+      <c r="G363" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H363" t="s" s="4">
+      <c r="H363" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10650,28 +10698,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="B365" t="s" s="4">
+      <c r="B365" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C365" t="s" s="4">
+      <c r="C365" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D365" t="s" s="4">
+      <c r="D365" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E365" t="s" s="4">
+      <c r="E365" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F365" t="s" s="4">
+      <c r="F365" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G365" t="s" s="4">
+      <c r="G365" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H365" t="s" s="4">
+      <c r="H365" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I365" t="s" s="4">
+      <c r="I365" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10730,10 +10778,10 @@
       <c r="I367">
         <f>((C367-C366)^2+(D367- D366)^2)^.5</f>
       </c>
-      <c r="J367" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K367" s="4" t="s">
+      <c r="J367" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K367" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L367" t="n">
@@ -10777,28 +10825,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="s" s="4">
+      <c r="A369" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B369" t="s" s="4">
+      <c r="B369" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C369" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D369" t="s" s="4">
+      <c r="C369" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D369" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E369" t="s" s="4">
+      <c r="E369" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F369" t="s" s="4">
+      <c r="F369" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G369" t="s" s="4">
+      <c r="G369" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H369" t="s" s="4">
+      <c r="H369" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10823,28 +10871,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="B371" t="s" s="4">
+      <c r="B371" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C371" t="s" s="4">
+      <c r="C371" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D371" t="s" s="4">
+      <c r="D371" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E371" t="s" s="4">
+      <c r="E371" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F371" t="s" s="4">
+      <c r="F371" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G371" t="s" s="4">
+      <c r="G371" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H371" t="s" s="4">
+      <c r="H371" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I371" t="s" s="4">
+      <c r="I371" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10903,10 +10951,10 @@
       <c r="I373">
         <f>((C373-C372)^2+(D373- D372)^2)^.5</f>
       </c>
-      <c r="J373" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K373" s="4" t="s">
+      <c r="J373" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K373" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L373" t="n">
@@ -10950,28 +10998,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="s" s="4">
+      <c r="A375" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B375" t="s" s="4">
+      <c r="B375" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C375" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D375" t="s" s="4">
+      <c r="C375" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D375" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E375" t="s" s="4">
+      <c r="E375" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F375" t="s" s="4">
+      <c r="F375" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G375" t="s" s="4">
+      <c r="G375" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H375" t="s" s="4">
+      <c r="H375" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10996,28 +11044,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="B377" t="s" s="4">
+      <c r="B377" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C377" t="s" s="4">
+      <c r="C377" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D377" t="s" s="4">
+      <c r="D377" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E377" t="s" s="4">
+      <c r="E377" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F377" t="s" s="4">
+      <c r="F377" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G377" t="s" s="4">
+      <c r="G377" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H377" t="s" s="4">
+      <c r="H377" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I377" t="s" s="4">
+      <c r="I377" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11076,10 +11124,10 @@
       <c r="I379">
         <f>((C379-C378)^2+(D379- D378)^2)^.5</f>
       </c>
-      <c r="J379" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K379" s="4" t="s">
+      <c r="J379" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K379" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L379" t="n">
@@ -11123,28 +11171,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="s" s="4">
+      <c r="A381" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B381" t="s" s="4">
+      <c r="B381" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C381" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D381" t="s" s="4">
+      <c r="C381" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D381" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E381" t="s" s="4">
+      <c r="E381" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F381" t="s" s="4">
+      <c r="F381" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G381" t="s" s="4">
+      <c r="G381" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H381" t="s" s="4">
+      <c r="H381" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11169,28 +11217,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="B383" t="s" s="4">
+      <c r="B383" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C383" t="s" s="4">
+      <c r="C383" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D383" t="s" s="4">
+      <c r="D383" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E383" t="s" s="4">
+      <c r="E383" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F383" t="s" s="4">
+      <c r="F383" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G383" t="s" s="4">
+      <c r="G383" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H383" t="s" s="4">
+      <c r="H383" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I383" t="s" s="4">
+      <c r="I383" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11336,10 +11384,10 @@
       <c r="I388">
         <f>((C388-C387)^2+(D388- D387)^2)^.5</f>
       </c>
-      <c r="J388" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K388" s="4" t="s">
+      <c r="J388" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K388" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L388" t="n">
@@ -11383,28 +11431,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="s" s="4">
+      <c r="A390" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B390" t="s" s="4">
+      <c r="B390" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C390" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D390" t="s" s="4">
+      <c r="C390" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D390" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E390" t="s" s="4">
+      <c r="E390" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F390" t="s" s="4">
+      <c r="F390" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G390" t="s" s="4">
+      <c r="G390" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H390" t="s" s="4">
+      <c r="H390" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11429,28 +11477,28 @@
       </c>
     </row>
     <row r="392">
-      <c r="B392" t="s" s="4">
+      <c r="B392" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C392" t="s" s="4">
+      <c r="C392" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D392" t="s" s="4">
+      <c r="D392" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E392" t="s" s="4">
+      <c r="E392" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F392" t="s" s="4">
+      <c r="F392" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G392" t="s" s="4">
+      <c r="G392" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H392" t="s" s="4">
+      <c r="H392" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I392" t="s" s="4">
+      <c r="I392" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11509,10 +11557,10 @@
       <c r="I394">
         <f>((C394-C393)^2+(D394- D393)^2)^.5</f>
       </c>
-      <c r="J394" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K394" s="4" t="s">
+      <c r="J394" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K394" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L394" t="n">
@@ -11556,28 +11604,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s" s="4">
+      <c r="A396" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B396" t="s" s="4">
+      <c r="B396" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C396" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D396" t="s" s="4">
+      <c r="C396" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E396" t="s" s="4">
+      <c r="E396" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F396" t="s" s="4">
+      <c r="F396" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G396" t="s" s="4">
+      <c r="G396" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H396" t="s" s="4">
+      <c r="H396" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11602,28 +11650,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="B398" t="s" s="4">
+      <c r="B398" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C398" t="s" s="4">
+      <c r="C398" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D398" t="s" s="4">
+      <c r="D398" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E398" t="s" s="4">
+      <c r="E398" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F398" t="s" s="4">
+      <c r="F398" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G398" t="s" s="4">
+      <c r="G398" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H398" t="s" s="4">
+      <c r="H398" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I398" t="s" s="4">
+      <c r="I398" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11682,10 +11730,10 @@
       <c r="I400">
         <f>((C400-C399)^2+(D400- D399)^2)^.5</f>
       </c>
-      <c r="J400" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K400" s="4" t="s">
+      <c r="J400" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K400" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L400" t="n">
@@ -11729,28 +11777,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="s" s="4">
+      <c r="A402" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B402" t="s" s="4">
+      <c r="B402" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C402" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D402" t="s" s="4">
+      <c r="C402" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E402" t="s" s="4">
+      <c r="E402" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F402" t="s" s="4">
+      <c r="F402" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G402" t="s" s="4">
+      <c r="G402" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H402" t="s" s="4">
+      <c r="H402" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11775,28 +11823,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="B404" t="s" s="4">
+      <c r="B404" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C404" t="s" s="4">
+      <c r="C404" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D404" t="s" s="4">
+      <c r="D404" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E404" t="s" s="4">
+      <c r="E404" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F404" t="s" s="4">
+      <c r="F404" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G404" t="s" s="4">
+      <c r="G404" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H404" t="s" s="4">
+      <c r="H404" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I404" t="s" s="4">
+      <c r="I404" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11855,10 +11903,10 @@
       <c r="I406">
         <f>((C406-C405)^2+(D406- D405)^2)^.5</f>
       </c>
-      <c r="J406" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K406" s="4" t="s">
+      <c r="J406" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K406" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L406" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13368" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16710" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -508,10 +526,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="12" t="s">
+      <c r="J11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -555,28 +573,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="12">
+      <c r="A13" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="12">
+      <c r="B13" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="12">
+      <c r="C13" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="12">
+      <c r="E13" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="12">
+      <c r="F13" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="12">
+      <c r="G13" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="12">
+      <c r="H13" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -601,28 +619,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="12">
+      <c r="B15" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="12">
+      <c r="C15" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="12">
+      <c r="D15" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="12">
+      <c r="E15" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="12">
+      <c r="F15" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="12">
+      <c r="G15" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="12">
+      <c r="H15" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="12">
+      <c r="I15" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -797,10 +815,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="12" t="s">
+      <c r="J21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -844,28 +862,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="12">
+      <c r="A23" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="12">
+      <c r="B23" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="12">
+      <c r="C23" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="12">
+      <c r="E23" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="12">
+      <c r="F23" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="12">
+      <c r="G23" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="12">
+      <c r="H23" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -890,28 +908,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="12">
+      <c r="B25" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="12">
+      <c r="C25" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="12">
+      <c r="D25" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="12">
+      <c r="E25" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="12">
+      <c r="F25" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="12">
+      <c r="G25" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="12">
+      <c r="H25" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="12">
+      <c r="I25" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -970,10 +988,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="12" t="s">
+      <c r="J27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -1017,28 +1035,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="12">
+      <c r="A29" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="12">
+      <c r="B29" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="12">
+      <c r="C29" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="12">
+      <c r="E29" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="12">
+      <c r="F29" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="12">
+      <c r="G29" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="12">
+      <c r="H29" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1063,28 +1081,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="12">
+      <c r="B31" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="12">
+      <c r="C31" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="12">
+      <c r="D31" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="12">
+      <c r="E31" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="12">
+      <c r="F31" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="12">
+      <c r="G31" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="12">
+      <c r="H31" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="12">
+      <c r="I31" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1143,10 +1161,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="12" t="s">
+      <c r="J33" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1190,28 +1208,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="12">
+      <c r="A35" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="12">
+      <c r="B35" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="12">
+      <c r="C35" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="12">
+      <c r="E35" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="12">
+      <c r="F35" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="12">
+      <c r="G35" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="12">
+      <c r="H35" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1236,28 +1254,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="12">
+      <c r="B37" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="12">
+      <c r="C37" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="12">
+      <c r="D37" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="12">
+      <c r="E37" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="12">
+      <c r="F37" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="12">
+      <c r="G37" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="12">
+      <c r="H37" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="12">
+      <c r="I37" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1316,10 +1334,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="12" t="s">
+      <c r="J39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1363,28 +1381,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="12">
+      <c r="A41" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="12">
+      <c r="B41" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="12">
+      <c r="C41" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="12">
+      <c r="E41" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="12">
+      <c r="F41" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="12">
+      <c r="G41" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="12">
+      <c r="H41" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1409,28 +1427,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="12">
+      <c r="B43" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="12">
+      <c r="C43" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="12">
+      <c r="D43" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="12">
+      <c r="E43" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="12">
+      <c r="F43" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="12">
+      <c r="G43" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="12">
+      <c r="H43" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="12">
+      <c r="I43" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1489,10 +1507,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="12" t="s">
+      <c r="J45" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1536,28 +1554,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="12">
+      <c r="A47" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="12">
+      <c r="B47" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="12">
+      <c r="C47" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="12">
+      <c r="E47" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="12">
+      <c r="F47" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="12">
+      <c r="G47" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="12">
+      <c r="H47" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1582,28 +1600,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="12">
+      <c r="B49" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="12">
+      <c r="C49" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="12">
+      <c r="D49" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="12">
+      <c r="E49" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="12">
+      <c r="F49" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="12">
+      <c r="G49" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="12">
+      <c r="H49" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="12">
+      <c r="I49" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1662,10 +1680,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="12" t="s">
+      <c r="J51" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1709,28 +1727,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="12">
+      <c r="A53" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="12">
+      <c r="B53" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="12">
+      <c r="C53" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="12">
+      <c r="E53" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="12">
+      <c r="F53" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="12">
+      <c r="G53" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="12">
+      <c r="H53" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1755,28 +1773,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="12">
+      <c r="B55" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="12">
+      <c r="C55" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="12">
+      <c r="D55" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="12">
+      <c r="E55" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="12">
+      <c r="F55" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="12">
+      <c r="G55" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="12">
+      <c r="H55" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="12">
+      <c r="I55" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1922,10 +1940,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="12" t="s">
+      <c r="J60" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1969,28 +1987,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="12">
+      <c r="A62" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="12">
+      <c r="B62" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="12">
+      <c r="C62" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="12">
+      <c r="E62" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="12">
+      <c r="F62" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="12">
+      <c r="G62" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="12">
+      <c r="H62" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2015,28 +2033,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="12">
+      <c r="B64" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="12">
+      <c r="C64" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="12">
+      <c r="D64" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="12">
+      <c r="E64" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="12">
+      <c r="F64" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="12">
+      <c r="G64" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="12">
+      <c r="H64" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="12">
+      <c r="I64" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2095,10 +2113,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="12" t="s">
+      <c r="J66" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2142,28 +2160,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="12">
+      <c r="A68" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="12">
+      <c r="B68" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="12">
+      <c r="C68" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="12">
+      <c r="E68" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="12">
+      <c r="F68" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="12">
+      <c r="G68" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="12">
+      <c r="H68" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2188,28 +2206,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="12">
+      <c r="B70" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="12">
+      <c r="C70" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="12">
+      <c r="D70" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="12">
+      <c r="E70" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="12">
+      <c r="F70" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="12">
+      <c r="G70" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="12">
+      <c r="H70" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="12">
+      <c r="I70" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2384,10 +2402,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="12" t="s">
+      <c r="J76" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2431,28 +2449,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="12">
+      <c r="A78" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="12">
+      <c r="B78" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="12">
+      <c r="C78" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="12">
+      <c r="E78" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="12">
+      <c r="F78" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="12">
+      <c r="G78" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="12">
+      <c r="H78" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2477,28 +2495,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="12">
+      <c r="B80" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="12">
+      <c r="C80" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="12">
+      <c r="D80" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="12">
+      <c r="E80" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="12">
+      <c r="F80" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="12">
+      <c r="G80" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="12">
+      <c r="H80" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="12">
+      <c r="I80" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2673,10 +2691,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="12" t="s">
+      <c r="J86" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2720,28 +2738,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="12">
+      <c r="A88" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="12">
+      <c r="B88" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="12">
+      <c r="C88" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="12">
+      <c r="E88" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="12">
+      <c r="F88" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="12">
+      <c r="G88" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="12">
+      <c r="H88" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2766,28 +2784,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="12">
+      <c r="B90" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="12">
+      <c r="C90" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="12">
+      <c r="D90" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="12">
+      <c r="E90" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="12">
+      <c r="F90" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="12">
+      <c r="G90" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="12">
+      <c r="H90" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="12">
+      <c r="I90" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2846,10 +2864,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="12" t="s">
+      <c r="J92" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2893,28 +2911,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="12">
+      <c r="A94" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="12">
+      <c r="B94" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="12">
+      <c r="C94" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="12">
+      <c r="E94" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="12">
+      <c r="F94" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="12">
+      <c r="G94" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="12">
+      <c r="H94" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2939,28 +2957,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="12">
+      <c r="B96" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="12">
+      <c r="C96" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="12">
+      <c r="D96" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="12">
+      <c r="E96" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="12">
+      <c r="F96" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="12">
+      <c r="G96" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="12">
+      <c r="H96" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="12">
+      <c r="I96" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3019,10 +3037,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="12" t="s">
+      <c r="J98" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3066,28 +3084,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="12">
+      <c r="A100" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="12">
+      <c r="B100" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="12">
+      <c r="C100" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="12">
+      <c r="E100" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="12">
+      <c r="F100" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="12">
+      <c r="G100" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="12">
+      <c r="H100" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3112,28 +3130,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="12">
+      <c r="B102" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="12">
+      <c r="C102" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="12">
+      <c r="D102" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="12">
+      <c r="E102" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="12">
+      <c r="F102" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="12">
+      <c r="G102" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="12">
+      <c r="H102" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="12">
+      <c r="I102" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3308,10 +3326,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="12" t="s">
+      <c r="J108" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3355,28 +3373,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="12">
+      <c r="A110" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="12">
+      <c r="B110" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="12">
+      <c r="C110" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="12">
+      <c r="E110" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="12">
+      <c r="F110" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="12">
+      <c r="G110" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="12">
+      <c r="H110" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3401,28 +3419,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="12">
+      <c r="B112" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="12">
+      <c r="C112" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="12">
+      <c r="D112" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="12">
+      <c r="E112" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="12">
+      <c r="F112" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="12">
+      <c r="G112" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="12">
+      <c r="H112" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="12">
+      <c r="I112" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3481,10 +3499,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="12" t="s">
+      <c r="J114" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3528,28 +3546,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="12">
+      <c r="A116" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="12">
+      <c r="B116" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="12">
+      <c r="C116" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="12">
+      <c r="E116" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="12">
+      <c r="F116" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="12">
+      <c r="G116" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="12">
+      <c r="H116" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3574,28 +3592,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="12">
+      <c r="B118" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="12">
+      <c r="C118" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="12">
+      <c r="D118" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="12">
+      <c r="E118" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="12">
+      <c r="F118" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="12">
+      <c r="G118" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="12">
+      <c r="H118" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="12">
+      <c r="I118" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3654,10 +3672,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="12" t="s">
+      <c r="J120" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3701,28 +3719,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="12">
+      <c r="A122" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="12">
+      <c r="B122" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="12">
+      <c r="C122" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="12">
+      <c r="E122" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="12">
+      <c r="F122" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="12">
+      <c r="G122" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="12">
+      <c r="H122" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3747,28 +3765,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="12">
+      <c r="B124" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="12">
+      <c r="C124" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="12">
+      <c r="D124" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="12">
+      <c r="E124" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="12">
+      <c r="F124" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="12">
+      <c r="G124" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="12">
+      <c r="H124" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="12">
+      <c r="I124" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3827,10 +3845,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="12" t="s">
+      <c r="J126" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3874,28 +3892,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="12">
+      <c r="A128" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="12">
+      <c r="B128" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="12">
+      <c r="C128" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="12">
+      <c r="E128" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="12">
+      <c r="F128" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="12">
+      <c r="G128" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="12">
+      <c r="H128" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3920,28 +3938,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="12">
+      <c r="B130" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="12">
+      <c r="C130" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="12">
+      <c r="D130" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="12">
+      <c r="E130" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="12">
+      <c r="F130" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="12">
+      <c r="G130" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="12">
+      <c r="H130" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="12">
+      <c r="I130" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4000,10 +4018,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="12" t="s">
+      <c r="J132" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -4047,28 +4065,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="12">
+      <c r="A134" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="12">
+      <c r="B134" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="12">
+      <c r="C134" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="12">
+      <c r="E134" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="12">
+      <c r="F134" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="12">
+      <c r="G134" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="12">
+      <c r="H134" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4093,28 +4111,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="12">
+      <c r="B136" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="12">
+      <c r="C136" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="12">
+      <c r="D136" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="12">
+      <c r="E136" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="12">
+      <c r="F136" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="12">
+      <c r="G136" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="12">
+      <c r="H136" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="12">
+      <c r="I136" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4173,10 +4191,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="12" t="s">
+      <c r="J138" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4220,28 +4238,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="12">
+      <c r="A140" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="12">
+      <c r="B140" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="12">
+      <c r="C140" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="12">
+      <c r="E140" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="12">
+      <c r="F140" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="12">
+      <c r="G140" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="12">
+      <c r="H140" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4266,28 +4284,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="12">
+      <c r="B142" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="12">
+      <c r="C142" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="12">
+      <c r="D142" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="12">
+      <c r="E142" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="12">
+      <c r="F142" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="12">
+      <c r="G142" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="12">
+      <c r="H142" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="12">
+      <c r="I142" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4346,10 +4364,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="12" t="s">
+      <c r="J144" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4393,28 +4411,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="12">
+      <c r="A146" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="12">
+      <c r="B146" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="12">
+      <c r="C146" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="12">
+      <c r="E146" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="12">
+      <c r="F146" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="12">
+      <c r="G146" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="12">
+      <c r="H146" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4439,28 +4457,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="12">
+      <c r="B148" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="12">
+      <c r="C148" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="12">
+      <c r="D148" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="12">
+      <c r="E148" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="12">
+      <c r="F148" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="12">
+      <c r="G148" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="12">
+      <c r="H148" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="12">
+      <c r="I148" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4519,10 +4537,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="12" t="s">
+      <c r="J150" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4566,28 +4584,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="12">
+      <c r="A152" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="12">
+      <c r="B152" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="12">
+      <c r="C152" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="12">
+      <c r="E152" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="12">
+      <c r="F152" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="12">
+      <c r="G152" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="12">
+      <c r="H152" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4612,28 +4630,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="12">
+      <c r="B154" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="12">
+      <c r="C154" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="12">
+      <c r="D154" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="12">
+      <c r="E154" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="12">
+      <c r="F154" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="12">
+      <c r="G154" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="12">
+      <c r="H154" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="12">
+      <c r="I154" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4692,10 +4710,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="12" t="s">
+      <c r="J156" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4739,28 +4757,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="12">
+      <c r="A158" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="12">
+      <c r="B158" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="12">
+      <c r="C158" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="12">
+      <c r="E158" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="12">
+      <c r="F158" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="12">
+      <c r="G158" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="12">
+      <c r="H158" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4785,28 +4803,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="12">
+      <c r="B160" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="12">
+      <c r="C160" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="12">
+      <c r="D160" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="12">
+      <c r="E160" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="12">
+      <c r="F160" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="12">
+      <c r="G160" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="12">
+      <c r="H160" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="12">
+      <c r="I160" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4865,10 +4883,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="12" t="s">
+      <c r="J162" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4912,28 +4930,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="12">
+      <c r="A164" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="12">
+      <c r="B164" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="12">
+      <c r="C164" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="12">
+      <c r="E164" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="12">
+      <c r="F164" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="12">
+      <c r="G164" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="12">
+      <c r="H164" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4958,28 +4976,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="12">
+      <c r="B166" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="12">
+      <c r="C166" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="12">
+      <c r="D166" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="12">
+      <c r="E166" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="12">
+      <c r="F166" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="12">
+      <c r="G166" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="12">
+      <c r="H166" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="12">
+      <c r="I166" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5038,10 +5056,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="12" t="s">
+      <c r="J168" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5085,28 +5103,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="12">
+      <c r="A170" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="12">
+      <c r="C170" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5131,28 +5149,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="12">
+      <c r="B172" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="12">
+      <c r="C172" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="12">
+      <c r="D172" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="12">
+      <c r="E172" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="12">
+      <c r="F172" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="12">
+      <c r="G172" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="12">
+      <c r="H172" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="12">
+      <c r="I172" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5211,10 +5229,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="12" t="s">
+      <c r="J174" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5258,28 +5276,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="12">
+      <c r="A176" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="12">
+      <c r="B176" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="12">
+      <c r="C176" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="12">
+      <c r="E176" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="12">
+      <c r="F176" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="12">
+      <c r="G176" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="12">
+      <c r="H176" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5304,28 +5322,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="12">
+      <c r="B178" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="12">
+      <c r="C178" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="12">
+      <c r="D178" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="12">
+      <c r="E178" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="12">
+      <c r="F178" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="12">
+      <c r="G178" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="12">
+      <c r="H178" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="12">
+      <c r="I178" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5384,10 +5402,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="12" t="s">
+      <c r="J180" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5431,28 +5449,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="12">
+      <c r="A182" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="12">
+      <c r="B182" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="12">
+      <c r="C182" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="12">
+      <c r="E182" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="12">
+      <c r="F182" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="12">
+      <c r="G182" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="12">
+      <c r="H182" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5477,28 +5495,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="12">
+      <c r="B184" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="12">
+      <c r="C184" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="12">
+      <c r="D184" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="12">
+      <c r="E184" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="12">
+      <c r="F184" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="12">
+      <c r="G184" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="12">
+      <c r="H184" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="12">
+      <c r="I184" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5644,10 +5662,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="12" t="s">
+      <c r="J189" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5691,28 +5709,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="12">
+      <c r="A191" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="12">
+      <c r="B191" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="12">
+      <c r="C191" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="12">
+      <c r="E191" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="12">
+      <c r="F191" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="12">
+      <c r="G191" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="12">
+      <c r="H191" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5737,28 +5755,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="12">
+      <c r="B193" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="12">
+      <c r="C193" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="12">
+      <c r="D193" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="12">
+      <c r="E193" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="12">
+      <c r="F193" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="12">
+      <c r="G193" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="12">
+      <c r="H193" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="12">
+      <c r="I193" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5817,10 +5835,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="12" t="s">
+      <c r="J195" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5864,28 +5882,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="12">
+      <c r="A197" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="12">
+      <c r="B197" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="12">
+      <c r="C197" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="12">
+      <c r="E197" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="12">
+      <c r="F197" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="12">
+      <c r="G197" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="12">
+      <c r="H197" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5910,28 +5928,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="12">
+      <c r="B199" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="12">
+      <c r="C199" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="12">
+      <c r="D199" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="12">
+      <c r="E199" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="12">
+      <c r="F199" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="12">
+      <c r="G199" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="12">
+      <c r="H199" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="12">
+      <c r="I199" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5990,10 +6008,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="12" t="s">
+      <c r="J201" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -6037,28 +6055,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="12">
+      <c r="A203" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="12">
+      <c r="B203" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="12">
+      <c r="C203" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="12">
+      <c r="E203" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="12">
+      <c r="F203" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="12">
+      <c r="G203" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="12">
+      <c r="H203" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6083,28 +6101,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="12">
+      <c r="B205" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="12">
+      <c r="C205" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="12">
+      <c r="D205" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="12">
+      <c r="E205" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="12">
+      <c r="F205" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="12">
+      <c r="G205" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="12">
+      <c r="H205" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="12">
+      <c r="I205" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6163,10 +6181,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="12" t="s">
+      <c r="J207" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6210,28 +6228,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="12">
+      <c r="A209" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="12">
+      <c r="B209" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="12">
+      <c r="C209" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="12">
+      <c r="E209" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="12">
+      <c r="F209" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="12">
+      <c r="G209" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="12">
+      <c r="H209" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6256,28 +6274,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="12">
+      <c r="B211" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="12">
+      <c r="C211" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="12">
+      <c r="D211" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="12">
+      <c r="E211" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="12">
+      <c r="F211" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="12">
+      <c r="G211" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="12">
+      <c r="H211" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="12">
+      <c r="I211" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6336,10 +6354,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="12" t="s">
+      <c r="J213" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6383,28 +6401,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="12">
+      <c r="A215" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="12">
+      <c r="B215" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="12">
+      <c r="C215" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="12">
+      <c r="E215" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="12">
+      <c r="F215" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="12">
+      <c r="G215" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="12">
+      <c r="H215" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6429,28 +6447,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="12">
+      <c r="B217" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="12">
+      <c r="C217" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="12">
+      <c r="D217" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="12">
+      <c r="E217" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="12">
+      <c r="F217" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="12">
+      <c r="G217" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="12">
+      <c r="H217" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="12">
+      <c r="I217" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6509,10 +6527,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="12" t="s">
+      <c r="J219" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6556,28 +6574,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="12">
+      <c r="A221" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="12">
+      <c r="B221" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="12">
+      <c r="C221" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="12">
+      <c r="E221" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="12">
+      <c r="F221" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="12">
+      <c r="G221" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="12">
+      <c r="H221" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6602,28 +6620,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="12">
+      <c r="B223" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="12">
+      <c r="C223" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="12">
+      <c r="D223" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="12">
+      <c r="E223" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="12">
+      <c r="F223" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="12">
+      <c r="G223" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="12">
+      <c r="H223" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="12">
+      <c r="I223" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6682,10 +6700,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="12" t="s">
+      <c r="J225" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6729,28 +6747,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="12">
+      <c r="A227" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="12">
+      <c r="B227" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="12">
+      <c r="C227" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="12">
+      <c r="E227" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="12">
+      <c r="F227" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="12">
+      <c r="G227" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="12">
+      <c r="H227" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6775,28 +6793,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="12">
+      <c r="B229" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="12">
+      <c r="C229" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="12">
+      <c r="D229" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="12">
+      <c r="E229" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="12">
+      <c r="F229" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="12">
+      <c r="G229" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="12">
+      <c r="H229" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="12">
+      <c r="I229" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6855,10 +6873,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="12" t="s">
+      <c r="J231" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6902,28 +6920,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="12">
+      <c r="A233" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="12">
+      <c r="B233" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="12">
+      <c r="C233" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="12">
+      <c r="E233" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="12">
+      <c r="F233" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="12">
+      <c r="G233" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="12">
+      <c r="H233" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6948,28 +6966,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="12">
+      <c r="B235" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="12">
+      <c r="C235" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="12">
+      <c r="D235" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="12">
+      <c r="E235" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="12">
+      <c r="F235" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="12">
+      <c r="G235" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="12">
+      <c r="H235" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="12">
+      <c r="I235" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7028,10 +7046,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="12" t="s">
+      <c r="J237" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7075,28 +7093,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="12">
+      <c r="A239" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="12">
+      <c r="B239" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="12">
+      <c r="C239" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="12">
+      <c r="E239" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="12">
+      <c r="F239" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="12">
+      <c r="G239" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="12">
+      <c r="H239" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7121,28 +7139,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="12">
+      <c r="B241" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="12">
+      <c r="C241" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="12">
+      <c r="D241" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="12">
+      <c r="E241" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="12">
+      <c r="F241" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="12">
+      <c r="G241" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="12">
+      <c r="H241" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="12">
+      <c r="I241" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7201,10 +7219,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="12" t="s">
+      <c r="J243" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7248,28 +7266,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="12">
+      <c r="A245" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="12">
+      <c r="B245" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="12">
+      <c r="C245" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="12">
+      <c r="E245" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="12">
+      <c r="F245" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="12">
+      <c r="G245" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="12">
+      <c r="H245" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7294,28 +7312,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="12">
+      <c r="B247" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="12">
+      <c r="C247" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="12">
+      <c r="D247" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="12">
+      <c r="E247" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="12">
+      <c r="F247" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="12">
+      <c r="G247" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="12">
+      <c r="H247" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="12">
+      <c r="I247" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7374,10 +7392,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="12" t="s">
+      <c r="J249" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7421,28 +7439,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="12">
+      <c r="A251" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="12">
+      <c r="B251" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="12">
+      <c r="C251" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="12">
+      <c r="E251" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="12">
+      <c r="F251" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="12">
+      <c r="G251" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="12">
+      <c r="H251" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7467,28 +7485,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="12">
+      <c r="B253" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="12">
+      <c r="C253" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="12">
+      <c r="D253" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="12">
+      <c r="E253" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="12">
+      <c r="F253" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="12">
+      <c r="G253" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="12">
+      <c r="H253" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="12">
+      <c r="I253" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7547,10 +7565,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="12" t="s">
+      <c r="J255" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7594,28 +7612,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="12">
+      <c r="A257" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="12">
+      <c r="B257" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="12">
+      <c r="C257" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="12">
+      <c r="E257" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="12">
+      <c r="F257" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="12">
+      <c r="G257" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="12">
+      <c r="H257" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7640,28 +7658,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="12">
+      <c r="B259" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="12">
+      <c r="C259" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="12">
+      <c r="D259" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="12">
+      <c r="E259" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="12">
+      <c r="F259" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="12">
+      <c r="G259" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="12">
+      <c r="H259" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="12">
+      <c r="I259" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7836,10 +7854,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="12" t="s">
+      <c r="J265" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7883,28 +7901,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="12">
+      <c r="A267" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="12">
+      <c r="B267" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="12">
+      <c r="C267" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="12">
+      <c r="E267" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="12">
+      <c r="F267" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="12">
+      <c r="G267" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="12">
+      <c r="H267" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7929,28 +7947,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="12">
+      <c r="B269" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="12">
+      <c r="C269" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="12">
+      <c r="D269" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="12">
+      <c r="E269" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="12">
+      <c r="F269" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="12">
+      <c r="G269" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="12">
+      <c r="H269" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="12">
+      <c r="I269" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8009,10 +8027,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="12" t="s">
+      <c r="J271" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -8056,28 +8074,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="12">
+      <c r="A273" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="12">
+      <c r="B273" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="12">
+      <c r="C273" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="12">
+      <c r="E273" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="12">
+      <c r="F273" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="12">
+      <c r="G273" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="12">
+      <c r="H273" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8102,28 +8120,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="12">
+      <c r="B275" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="12">
+      <c r="C275" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="12">
+      <c r="D275" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="12">
+      <c r="E275" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="12">
+      <c r="F275" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="12">
+      <c r="G275" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="12">
+      <c r="H275" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="12">
+      <c r="I275" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8182,10 +8200,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="12" t="s">
+      <c r="J277" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8229,28 +8247,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="12">
+      <c r="A279" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="12">
+      <c r="B279" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="12">
+      <c r="C279" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="12">
+      <c r="E279" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="12">
+      <c r="F279" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="12">
+      <c r="G279" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="12">
+      <c r="H279" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8275,28 +8293,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="12">
+      <c r="B281" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="12">
+      <c r="C281" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="12">
+      <c r="D281" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="12">
+      <c r="E281" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="12">
+      <c r="F281" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="12">
+      <c r="G281" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="12">
+      <c r="H281" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="12">
+      <c r="I281" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8355,10 +8373,10 @@
       <c r="I283">
         <f>((C283-C282)^2+(D283- D282)^2)^.5</f>
       </c>
-      <c r="J283" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K283" s="12" t="s">
+      <c r="J283" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K283" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L283" t="n">
@@ -8402,28 +8420,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="12">
+      <c r="A285" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B285" t="s" s="12">
+      <c r="B285" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C285" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D285" t="s" s="12">
+      <c r="C285" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E285" t="s" s="12">
+      <c r="E285" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F285" t="s" s="12">
+      <c r="F285" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G285" t="s" s="12">
+      <c r="G285" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H285" t="s" s="12">
+      <c r="H285" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8448,28 +8466,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="12">
+      <c r="B287" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C287" t="s" s="12">
+      <c r="C287" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D287" t="s" s="12">
+      <c r="D287" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E287" t="s" s="12">
+      <c r="E287" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F287" t="s" s="12">
+      <c r="F287" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G287" t="s" s="12">
+      <c r="G287" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H287" t="s" s="12">
+      <c r="H287" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I287" t="s" s="12">
+      <c r="I287" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8528,10 +8546,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="12" t="s">
+      <c r="J289" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8575,28 +8593,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="12">
+      <c r="A291" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="12">
+      <c r="B291" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="12">
+      <c r="C291" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="12">
+      <c r="E291" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="12">
+      <c r="F291" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="12">
+      <c r="G291" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="12">
+      <c r="H291" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8621,28 +8639,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="12">
+      <c r="B293" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="12">
+      <c r="C293" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="12">
+      <c r="D293" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="12">
+      <c r="E293" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="12">
+      <c r="F293" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="12">
+      <c r="G293" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="12">
+      <c r="H293" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="12">
+      <c r="I293" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8701,10 +8719,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="12" t="s">
+      <c r="J295" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8748,28 +8766,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="12">
+      <c r="A297" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="12">
+      <c r="B297" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="12">
+      <c r="C297" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="12">
+      <c r="E297" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="12">
+      <c r="F297" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="12">
+      <c r="G297" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="12">
+      <c r="H297" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8794,28 +8812,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="12">
+      <c r="B299" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="12">
+      <c r="C299" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="12">
+      <c r="D299" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="12">
+      <c r="E299" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="12">
+      <c r="F299" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="12">
+      <c r="G299" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="12">
+      <c r="H299" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="12">
+      <c r="I299" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8874,10 +8892,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="12" t="s">
+      <c r="J301" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
@@ -8921,28 +8939,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="s" s="12">
+      <c r="A303" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B303" t="s" s="12">
+      <c r="B303" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C303" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D303" t="s" s="12">
+      <c r="C303" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D303" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E303" t="s" s="12">
+      <c r="E303" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F303" t="s" s="12">
+      <c r="F303" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G303" t="s" s="12">
+      <c r="G303" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H303" t="s" s="12">
+      <c r="H303" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8967,28 +8985,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="B305" t="s" s="12">
+      <c r="B305" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C305" t="s" s="12">
+      <c r="C305" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D305" t="s" s="12">
+      <c r="D305" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E305" t="s" s="12">
+      <c r="E305" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F305" t="s" s="12">
+      <c r="F305" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G305" t="s" s="12">
+      <c r="G305" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H305" t="s" s="12">
+      <c r="H305" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I305" t="s" s="12">
+      <c r="I305" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9047,10 +9065,10 @@
       <c r="I307">
         <f>((C307-C306)^2+(D307- D306)^2)^.5</f>
       </c>
-      <c r="J307" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K307" s="12" t="s">
+      <c r="J307" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K307" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L307" t="n">
@@ -9094,28 +9112,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="s" s="12">
+      <c r="A309" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B309" t="s" s="12">
+      <c r="B309" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C309" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D309" t="s" s="12">
+      <c r="C309" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D309" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E309" t="s" s="12">
+      <c r="E309" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F309" t="s" s="12">
+      <c r="F309" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G309" t="s" s="12">
+      <c r="G309" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H309" t="s" s="12">
+      <c r="H309" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9140,28 +9158,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="B311" t="s" s="12">
+      <c r="B311" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C311" t="s" s="12">
+      <c r="C311" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D311" t="s" s="12">
+      <c r="D311" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E311" t="s" s="12">
+      <c r="E311" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F311" t="s" s="12">
+      <c r="F311" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G311" t="s" s="12">
+      <c r="G311" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H311" t="s" s="12">
+      <c r="H311" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I311" t="s" s="12">
+      <c r="I311" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9220,10 +9238,10 @@
       <c r="I313">
         <f>((C313-C312)^2+(D313- D312)^2)^.5</f>
       </c>
-      <c r="J313" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K313" s="12" t="s">
+      <c r="J313" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K313" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L313" t="n">
@@ -9267,28 +9285,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="s" s="12">
+      <c r="A315" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B315" t="s" s="12">
+      <c r="B315" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C315" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D315" t="s" s="12">
+      <c r="C315" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D315" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E315" t="s" s="12">
+      <c r="E315" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F315" t="s" s="12">
+      <c r="F315" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G315" t="s" s="12">
+      <c r="G315" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H315" t="s" s="12">
+      <c r="H315" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9313,28 +9331,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="B317" t="s" s="12">
+      <c r="B317" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C317" t="s" s="12">
+      <c r="C317" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D317" t="s" s="12">
+      <c r="D317" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E317" t="s" s="12">
+      <c r="E317" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F317" t="s" s="12">
+      <c r="F317" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G317" t="s" s="12">
+      <c r="G317" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H317" t="s" s="12">
+      <c r="H317" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I317" t="s" s="12">
+      <c r="I317" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9393,10 +9411,10 @@
       <c r="I319">
         <f>((C319-C318)^2+(D319- D318)^2)^.5</f>
       </c>
-      <c r="J319" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K319" s="12" t="s">
+      <c r="J319" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K319" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L319" t="n">
@@ -9440,28 +9458,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="s" s="12">
+      <c r="A321" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B321" t="s" s="12">
+      <c r="B321" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C321" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D321" t="s" s="12">
+      <c r="C321" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D321" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E321" t="s" s="12">
+      <c r="E321" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F321" t="s" s="12">
+      <c r="F321" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G321" t="s" s="12">
+      <c r="G321" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H321" t="s" s="12">
+      <c r="H321" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9486,28 +9504,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="B323" t="s" s="12">
+      <c r="B323" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C323" t="s" s="12">
+      <c r="C323" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D323" t="s" s="12">
+      <c r="D323" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E323" t="s" s="12">
+      <c r="E323" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F323" t="s" s="12">
+      <c r="F323" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G323" t="s" s="12">
+      <c r="G323" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H323" t="s" s="12">
+      <c r="H323" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I323" t="s" s="12">
+      <c r="I323" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9566,10 +9584,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="12" t="s">
+      <c r="J325" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9613,28 +9631,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="12">
+      <c r="A327" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="12">
+      <c r="B327" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="12">
+      <c r="C327" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="12">
+      <c r="E327" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="12">
+      <c r="F327" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="12">
+      <c r="G327" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="12">
+      <c r="H327" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9659,28 +9677,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="12">
+      <c r="B329" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="12">
+      <c r="C329" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="12">
+      <c r="D329" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="12">
+      <c r="E329" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="12">
+      <c r="F329" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="12">
+      <c r="G329" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="12">
+      <c r="H329" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="12">
+      <c r="I329" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9826,10 +9844,10 @@
       <c r="I334">
         <f>((C334-C333)^2+(D334- D333)^2)^.5</f>
       </c>
-      <c r="J334" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K334" s="12" t="s">
+      <c r="J334" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K334" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L334" t="n">
@@ -9873,28 +9891,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="s" s="12">
+      <c r="A336" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B336" t="s" s="12">
+      <c r="B336" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C336" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D336" t="s" s="12">
+      <c r="C336" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D336" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E336" t="s" s="12">
+      <c r="E336" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F336" t="s" s="12">
+      <c r="F336" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G336" t="s" s="12">
+      <c r="G336" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H336" t="s" s="12">
+      <c r="H336" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9919,28 +9937,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="B338" t="s" s="12">
+      <c r="B338" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C338" t="s" s="12">
+      <c r="C338" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D338" t="s" s="12">
+      <c r="D338" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E338" t="s" s="12">
+      <c r="E338" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F338" t="s" s="12">
+      <c r="F338" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G338" t="s" s="12">
+      <c r="G338" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H338" t="s" s="12">
+      <c r="H338" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I338" t="s" s="12">
+      <c r="I338" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9999,10 +10017,10 @@
       <c r="I340">
         <f>((C340-C339)^2+(D340- D339)^2)^.5</f>
       </c>
-      <c r="J340" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K340" s="12" t="s">
+      <c r="J340" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K340" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L340" t="n">
@@ -10046,28 +10064,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s" s="12">
+      <c r="A342" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B342" t="s" s="12">
+      <c r="B342" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C342" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D342" t="s" s="12">
+      <c r="C342" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D342" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E342" t="s" s="12">
+      <c r="E342" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F342" t="s" s="12">
+      <c r="F342" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G342" t="s" s="12">
+      <c r="G342" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H342" t="s" s="12">
+      <c r="H342" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10092,28 +10110,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="B344" t="s" s="12">
+      <c r="B344" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C344" t="s" s="12">
+      <c r="C344" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D344" t="s" s="12">
+      <c r="D344" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E344" t="s" s="12">
+      <c r="E344" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F344" t="s" s="12">
+      <c r="F344" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G344" t="s" s="12">
+      <c r="G344" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H344" t="s" s="12">
+      <c r="H344" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I344" t="s" s="12">
+      <c r="I344" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10259,10 +10277,10 @@
       <c r="I349">
         <f>((C349-C348)^2+(D349- D348)^2)^.5</f>
       </c>
-      <c r="J349" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K349" s="12" t="s">
+      <c r="J349" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K349" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L349" t="n">
@@ -10306,28 +10324,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="12">
+      <c r="A351" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B351" t="s" s="12">
+      <c r="B351" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C351" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D351" t="s" s="12">
+      <c r="C351" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D351" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E351" t="s" s="12">
+      <c r="E351" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F351" t="s" s="12">
+      <c r="F351" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G351" t="s" s="12">
+      <c r="G351" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H351" t="s" s="12">
+      <c r="H351" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10352,28 +10370,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="B353" t="s" s="12">
+      <c r="B353" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C353" t="s" s="12">
+      <c r="C353" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D353" t="s" s="12">
+      <c r="D353" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E353" t="s" s="12">
+      <c r="E353" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F353" t="s" s="12">
+      <c r="F353" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G353" t="s" s="12">
+      <c r="G353" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H353" t="s" s="12">
+      <c r="H353" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I353" t="s" s="12">
+      <c r="I353" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10432,10 +10450,10 @@
       <c r="I355">
         <f>((C355-C354)^2+(D355- D354)^2)^.5</f>
       </c>
-      <c r="J355" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K355" s="12" t="s">
+      <c r="J355" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K355" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L355" t="n">
@@ -10479,28 +10497,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="s" s="12">
+      <c r="A357" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B357" t="s" s="12">
+      <c r="B357" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C357" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D357" t="s" s="12">
+      <c r="C357" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D357" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E357" t="s" s="12">
+      <c r="E357" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F357" t="s" s="12">
+      <c r="F357" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G357" t="s" s="12">
+      <c r="G357" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H357" t="s" s="12">
+      <c r="H357" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10525,28 +10543,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="B359" t="s" s="12">
+      <c r="B359" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C359" t="s" s="12">
+      <c r="C359" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D359" t="s" s="12">
+      <c r="D359" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E359" t="s" s="12">
+      <c r="E359" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F359" t="s" s="12">
+      <c r="F359" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G359" t="s" s="12">
+      <c r="G359" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H359" t="s" s="12">
+      <c r="H359" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I359" t="s" s="12">
+      <c r="I359" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10605,10 +10623,10 @@
       <c r="I361">
         <f>((C361-C360)^2+(D361- D360)^2)^.5</f>
       </c>
-      <c r="J361" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K361" s="12" t="s">
+      <c r="J361" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K361" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L361" t="n">
@@ -10652,28 +10670,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="s" s="12">
+      <c r="A363" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B363" t="s" s="12">
+      <c r="B363" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C363" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D363" t="s" s="12">
+      <c r="C363" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D363" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E363" t="s" s="12">
+      <c r="E363" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F363" t="s" s="12">
+      <c r="F363" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G363" t="s" s="12">
+      <c r="G363" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H363" t="s" s="12">
+      <c r="H363" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10698,28 +10716,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="B365" t="s" s="12">
+      <c r="B365" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C365" t="s" s="12">
+      <c r="C365" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D365" t="s" s="12">
+      <c r="D365" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E365" t="s" s="12">
+      <c r="E365" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F365" t="s" s="12">
+      <c r="F365" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G365" t="s" s="12">
+      <c r="G365" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H365" t="s" s="12">
+      <c r="H365" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I365" t="s" s="12">
+      <c r="I365" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10778,10 +10796,10 @@
       <c r="I367">
         <f>((C367-C366)^2+(D367- D366)^2)^.5</f>
       </c>
-      <c r="J367" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K367" s="12" t="s">
+      <c r="J367" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K367" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L367" t="n">
@@ -10825,28 +10843,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="s" s="12">
+      <c r="A369" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B369" t="s" s="12">
+      <c r="B369" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C369" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D369" t="s" s="12">
+      <c r="C369" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D369" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E369" t="s" s="12">
+      <c r="E369" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F369" t="s" s="12">
+      <c r="F369" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G369" t="s" s="12">
+      <c r="G369" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H369" t="s" s="12">
+      <c r="H369" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10871,28 +10889,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="B371" t="s" s="12">
+      <c r="B371" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C371" t="s" s="12">
+      <c r="C371" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D371" t="s" s="12">
+      <c r="D371" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E371" t="s" s="12">
+      <c r="E371" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F371" t="s" s="12">
+      <c r="F371" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G371" t="s" s="12">
+      <c r="G371" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H371" t="s" s="12">
+      <c r="H371" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I371" t="s" s="12">
+      <c r="I371" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10951,10 +10969,10 @@
       <c r="I373">
         <f>((C373-C372)^2+(D373- D372)^2)^.5</f>
       </c>
-      <c r="J373" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K373" s="12" t="s">
+      <c r="J373" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K373" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L373" t="n">
@@ -10998,28 +11016,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="s" s="12">
+      <c r="A375" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B375" t="s" s="12">
+      <c r="B375" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C375" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D375" t="s" s="12">
+      <c r="C375" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D375" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E375" t="s" s="12">
+      <c r="E375" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F375" t="s" s="12">
+      <c r="F375" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G375" t="s" s="12">
+      <c r="G375" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H375" t="s" s="12">
+      <c r="H375" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11044,28 +11062,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="B377" t="s" s="12">
+      <c r="B377" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C377" t="s" s="12">
+      <c r="C377" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D377" t="s" s="12">
+      <c r="D377" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E377" t="s" s="12">
+      <c r="E377" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F377" t="s" s="12">
+      <c r="F377" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G377" t="s" s="12">
+      <c r="G377" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H377" t="s" s="12">
+      <c r="H377" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I377" t="s" s="12">
+      <c r="I377" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11124,10 +11142,10 @@
       <c r="I379">
         <f>((C379-C378)^2+(D379- D378)^2)^.5</f>
       </c>
-      <c r="J379" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K379" s="12" t="s">
+      <c r="J379" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K379" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L379" t="n">
@@ -11171,28 +11189,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="s" s="12">
+      <c r="A381" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B381" t="s" s="12">
+      <c r="B381" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C381" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D381" t="s" s="12">
+      <c r="C381" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D381" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E381" t="s" s="12">
+      <c r="E381" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F381" t="s" s="12">
+      <c r="F381" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G381" t="s" s="12">
+      <c r="G381" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H381" t="s" s="12">
+      <c r="H381" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11217,28 +11235,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="B383" t="s" s="12">
+      <c r="B383" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C383" t="s" s="12">
+      <c r="C383" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D383" t="s" s="12">
+      <c r="D383" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E383" t="s" s="12">
+      <c r="E383" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F383" t="s" s="12">
+      <c r="F383" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G383" t="s" s="12">
+      <c r="G383" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H383" t="s" s="12">
+      <c r="H383" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I383" t="s" s="12">
+      <c r="I383" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11384,10 +11402,10 @@
       <c r="I388">
         <f>((C388-C387)^2+(D388- D387)^2)^.5</f>
       </c>
-      <c r="J388" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K388" s="12" t="s">
+      <c r="J388" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K388" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L388" t="n">
@@ -11431,28 +11449,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="s" s="12">
+      <c r="A390" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B390" t="s" s="12">
+      <c r="B390" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C390" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D390" t="s" s="12">
+      <c r="C390" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D390" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E390" t="s" s="12">
+      <c r="E390" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F390" t="s" s="12">
+      <c r="F390" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G390" t="s" s="12">
+      <c r="G390" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H390" t="s" s="12">
+      <c r="H390" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11477,28 +11495,28 @@
       </c>
     </row>
     <row r="392">
-      <c r="B392" t="s" s="12">
+      <c r="B392" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C392" t="s" s="12">
+      <c r="C392" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D392" t="s" s="12">
+      <c r="D392" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E392" t="s" s="12">
+      <c r="E392" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F392" t="s" s="12">
+      <c r="F392" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G392" t="s" s="12">
+      <c r="G392" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H392" t="s" s="12">
+      <c r="H392" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I392" t="s" s="12">
+      <c r="I392" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11557,10 +11575,10 @@
       <c r="I394">
         <f>((C394-C393)^2+(D394- D393)^2)^.5</f>
       </c>
-      <c r="J394" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K394" s="12" t="s">
+      <c r="J394" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K394" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L394" t="n">
@@ -11604,28 +11622,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s" s="12">
+      <c r="A396" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B396" t="s" s="12">
+      <c r="B396" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C396" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D396" t="s" s="12">
+      <c r="C396" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E396" t="s" s="12">
+      <c r="E396" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F396" t="s" s="12">
+      <c r="F396" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G396" t="s" s="12">
+      <c r="G396" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H396" t="s" s="12">
+      <c r="H396" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11650,28 +11668,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="B398" t="s" s="12">
+      <c r="B398" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C398" t="s" s="12">
+      <c r="C398" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D398" t="s" s="12">
+      <c r="D398" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E398" t="s" s="12">
+      <c r="E398" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F398" t="s" s="12">
+      <c r="F398" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G398" t="s" s="12">
+      <c r="G398" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H398" t="s" s="12">
+      <c r="H398" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I398" t="s" s="12">
+      <c r="I398" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11730,10 +11748,10 @@
       <c r="I400">
         <f>((C400-C399)^2+(D400- D399)^2)^.5</f>
       </c>
-      <c r="J400" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K400" s="12" t="s">
+      <c r="J400" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K400" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L400" t="n">
@@ -11777,28 +11795,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="s" s="12">
+      <c r="A402" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B402" t="s" s="12">
+      <c r="B402" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C402" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D402" t="s" s="12">
+      <c r="C402" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E402" t="s" s="12">
+      <c r="E402" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F402" t="s" s="12">
+      <c r="F402" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G402" t="s" s="12">
+      <c r="G402" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H402" t="s" s="12">
+      <c r="H402" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11823,28 +11841,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="B404" t="s" s="12">
+      <c r="B404" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C404" t="s" s="12">
+      <c r="C404" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D404" t="s" s="12">
+      <c r="D404" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E404" t="s" s="12">
+      <c r="E404" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F404" t="s" s="12">
+      <c r="F404" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G404" t="s" s="12">
+      <c r="G404" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H404" t="s" s="12">
+      <c r="H404" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I404" t="s" s="12">
+      <c r="I404" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11903,10 +11921,10 @@
       <c r="I406">
         <f>((C406-C405)^2+(D406- D405)^2)^.5</f>
       </c>
-      <c r="J406" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K406" s="12" t="s">
+      <c r="J406" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K406" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L406" t="n">
